--- a/TOAD_FINAL/REGISTROS.xlsx
+++ b/TOAD_FINAL/REGISTROS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mr.blissfulgrin/Documents/UAH_2017_2018/BASES_DE_DATOS/LAB/PECL2/BBDD/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mr.blissfulgrin/Documents/UAH_2017_2018/BASES_DE_DATOS/LAB/PECL2/BBDD/TOAD_FINAL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD83138-3828-A146-AE17-0320B46ED9AA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEE05CE-E69C-134D-95E6-1301C7A512E1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" xr2:uid="{BEAE42A8-50CD-654F-B009-9630567E009C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="332">
   <si>
     <t>Tienda</t>
   </si>
@@ -1003,13 +1003,31 @@
   </si>
   <si>
     <t>Canjeados y comprados sin estar en tickets premiados Akn-3jn-NS9, iKl-ks7-Jh0e, LM8-gsi-6tYd, bnc-mbU-OP87, bcy-JGH-98HJ, wef-rKM-dD93, aso-LJk-08SS, osk-iw9-IS8K, kja-pkJ-232r</t>
+  </si>
+  <si>
+    <t>Contraseña</t>
+  </si>
+  <si>
+    <t>ContraseñaSegura123</t>
+  </si>
+  <si>
+    <t>KeepMeSafeBB</t>
+  </si>
+  <si>
+    <t>ListoElQueLoLea</t>
+  </si>
+  <si>
+    <t>ContraseñaNoValida</t>
+  </si>
+  <si>
+    <t>L4Bu3n4C0ntr53Ñ4JAjan0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1028,6 +1046,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1162,7 +1187,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1224,26 +1249,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1559,10 +1586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8223B3-2A23-8943-9586-3C515A3B42E3}">
-  <dimension ref="A1:CI26"/>
+  <dimension ref="A1:CJ26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CG1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="CJ22" sqref="CJ22"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="AX7" sqref="AX7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1596,41 +1623,42 @@
     <col min="47" max="47" width="14.6640625" customWidth="1"/>
     <col min="48" max="48" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="16" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="18.5" customWidth="1"/>
-    <col min="71" max="71" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="151.33203125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="24.1640625" customWidth="1"/>
+    <col min="52" max="52" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="16" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="17" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="18.5" customWidth="1"/>
+    <col min="72" max="72" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="151.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:87" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:88" x14ac:dyDescent="0.2">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="D1" s="36" t="s">
+      <c r="B1" s="39"/>
+      <c r="D1" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
       <c r="K1" s="37" t="s">
         <v>23</v>
       </c>
@@ -1657,16 +1685,16 @@
       <c r="AD1" s="40"/>
       <c r="AE1" s="40"/>
       <c r="AF1" s="18"/>
-      <c r="AG1" s="35" t="s">
+      <c r="AG1" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AL1" s="39" t="s">
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AL1" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="AM1" s="39"/>
+      <c r="AM1" s="41"/>
       <c r="AO1" s="37" t="s">
         <v>188</v>
       </c>
@@ -1679,56 +1707,57 @@
       <c r="AU1" s="40"/>
       <c r="AV1" s="40"/>
       <c r="AW1" s="40"/>
-      <c r="AY1" s="35" t="s">
+      <c r="AX1" s="40"/>
+      <c r="AZ1" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="AZ1" s="35"/>
-      <c r="BA1" s="35"/>
-      <c r="BB1" s="35"/>
-      <c r="BC1" s="35"/>
-      <c r="BE1" s="39" t="s">
+      <c r="BA1" s="39"/>
+      <c r="BB1" s="39"/>
+      <c r="BC1" s="39"/>
+      <c r="BD1" s="39"/>
+      <c r="BF1" s="41" t="s">
         <v>198</v>
       </c>
-      <c r="BF1" s="39"/>
-      <c r="BG1" s="39"/>
-      <c r="BH1" s="39"/>
-      <c r="BJ1" s="37" t="s">
+      <c r="BG1" s="41"/>
+      <c r="BH1" s="41"/>
+      <c r="BI1" s="41"/>
+      <c r="BK1" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="BK1" s="37"/>
       <c r="BL1" s="37"/>
       <c r="BM1" s="37"/>
-      <c r="BO1" s="38" t="s">
+      <c r="BN1" s="37"/>
+      <c r="BP1" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="BP1" s="38"/>
       <c r="BQ1" s="38"/>
-      <c r="BS1" s="40" t="s">
+      <c r="BR1" s="38"/>
+      <c r="BT1" s="40" t="s">
         <v>280</v>
       </c>
-      <c r="BT1" s="40"/>
       <c r="BU1" s="40"/>
       <c r="BV1" s="40"/>
-      <c r="BX1" s="35" t="s">
+      <c r="BW1" s="40"/>
+      <c r="BY1" s="39" t="s">
         <v>281</v>
       </c>
-      <c r="BY1" s="35"/>
-      <c r="BZ1" s="35"/>
-      <c r="CA1" s="35"/>
-      <c r="CB1" s="35"/>
-      <c r="CD1" s="37" t="s">
+      <c r="BZ1" s="39"/>
+      <c r="CA1" s="39"/>
+      <c r="CB1" s="39"/>
+      <c r="CC1" s="39"/>
+      <c r="CE1" s="37" t="s">
         <v>200</v>
       </c>
-      <c r="CE1" s="37"/>
       <c r="CF1" s="37"/>
-      <c r="CH1" s="41" t="s">
+      <c r="CG1" s="37"/>
+      <c r="CI1" s="35" t="s">
         <v>299</v>
       </c>
-      <c r="CI1" s="41" t="s">
+      <c r="CJ1" s="35" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1852,98 +1881,101 @@
       <c r="AW2" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="AY2" s="2" t="s">
+      <c r="AX2" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="AZ2" s="2" t="s">
+      <c r="BA2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="BA2" s="2" t="s">
+      <c r="BB2" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="BB2" s="2" t="s">
+      <c r="BC2" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="BC2" s="2" t="s">
+      <c r="BD2" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="BE2" s="24" t="s">
+      <c r="BF2" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="BF2" s="24" t="s">
+      <c r="BG2" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="BG2" s="24" t="s">
+      <c r="BH2" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="BH2" s="24" t="s">
+      <c r="BI2" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="BJ2" s="11" t="s">
+      <c r="BK2" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="BK2" s="11" t="s">
+      <c r="BL2" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="BL2" s="11" t="s">
+      <c r="BM2" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="BM2" s="11" t="s">
+      <c r="BN2" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="BO2" s="19" t="s">
+      <c r="BP2" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="BP2" s="19" t="s">
+      <c r="BQ2" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="BQ2" s="19" t="s">
+      <c r="BR2" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="BS2" s="21" t="s">
+      <c r="BT2" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="BT2" s="21" t="s">
+      <c r="BU2" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="BU2" s="21" t="s">
+      <c r="BV2" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="BV2" s="21" t="s">
+      <c r="BW2" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="BX2" s="2" t="s">
+      <c r="BY2" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="BY2" s="2" t="s">
+      <c r="BZ2" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="BZ2" s="2" t="s">
+      <c r="CA2" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="CA2" s="2" t="s">
+      <c r="CB2" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="CB2" s="2" t="s">
+      <c r="CC2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="CD2" s="11" t="s">
+      <c r="CE2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="CE2" s="11" t="s">
+      <c r="CF2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="CF2" s="11" t="s">
+      <c r="CG2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="CH2" s="19">
+      <c r="CI2" s="19">
         <v>1</v>
       </c>
-      <c r="CI2" s="20" t="s">
+      <c r="CJ2" s="20" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="3" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
@@ -2067,98 +2099,101 @@
       <c r="AW3" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="AY3" s="23" t="s">
+      <c r="AX3" s="43" t="s">
+        <v>327</v>
+      </c>
+      <c r="AZ3" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="AZ3" s="34">
+      <c r="BA3" s="34">
         <v>0</v>
       </c>
-      <c r="BA3" s="33">
+      <c r="BB3" s="33">
         <v>25</v>
       </c>
-      <c r="BB3" s="8">
+      <c r="BC3" s="8">
         <v>20</v>
       </c>
-      <c r="BC3" s="30" t="s">
+      <c r="BD3" s="30" t="s">
         <v>293</v>
       </c>
-      <c r="BE3" s="32" t="s">
+      <c r="BF3" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="BF3" s="25">
+      <c r="BG3" s="25">
         <v>10</v>
       </c>
-      <c r="BG3" s="25" t="s">
+      <c r="BH3" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="BH3" s="25" t="s">
+      <c r="BI3" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="BJ3" s="12" t="s">
+      <c r="BK3" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="BK3" s="12" t="s">
+      <c r="BL3" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="BL3" s="12">
+      <c r="BM3" s="12">
         <v>20</v>
       </c>
-      <c r="BM3" s="42" t="s">
+      <c r="BN3" s="36" t="s">
         <v>292</v>
       </c>
-      <c r="BO3" s="20" t="s">
+      <c r="BP3" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="BP3" s="20">
+      <c r="BQ3" s="20">
         <v>3</v>
       </c>
-      <c r="BQ3" s="20">
+      <c r="BR3" s="20">
         <v>2393</v>
       </c>
-      <c r="BS3" s="22">
+      <c r="BT3" s="22">
         <v>6</v>
       </c>
-      <c r="BT3" s="22">
+      <c r="BU3" s="22">
         <v>24</v>
       </c>
-      <c r="BU3" s="22">
+      <c r="BV3" s="22">
         <v>5609</v>
       </c>
-      <c r="BV3" s="22">
+      <c r="BW3" s="22">
         <v>4656</v>
       </c>
-      <c r="BX3" s="23">
+      <c r="BY3" s="23">
         <v>7</v>
       </c>
-      <c r="BY3" s="23">
+      <c r="BZ3" s="23">
         <v>28</v>
       </c>
-      <c r="BZ3" s="23" t="s">
+      <c r="CA3" s="23" t="s">
         <v>279</v>
       </c>
-      <c r="CA3" s="23">
+      <c r="CB3" s="23">
         <v>9234</v>
       </c>
-      <c r="CB3" s="23">
+      <c r="CC3" s="23">
         <v>5656</v>
       </c>
-      <c r="CD3" s="31">
+      <c r="CE3" s="31">
         <v>1</v>
       </c>
-      <c r="CE3" s="12" t="s">
+      <c r="CF3" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="CF3" s="12">
+      <c r="CG3" s="12">
         <v>6787</v>
       </c>
-      <c r="CH3" s="19">
+      <c r="CI3" s="19">
         <v>2</v>
       </c>
-      <c r="CI3" s="20" t="s">
+      <c r="CJ3" s="20" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="4" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
@@ -2282,71 +2317,74 @@
       <c r="AW4" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="AY4" s="23" t="s">
+      <c r="AX4" s="44" t="s">
+        <v>328</v>
+      </c>
+      <c r="AZ4" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="AZ4" s="34">
+      <c r="BA4" s="34">
         <v>0</v>
       </c>
-      <c r="BA4" s="33">
+      <c r="BB4" s="33">
         <v>26</v>
       </c>
-      <c r="BB4" s="8">
+      <c r="BC4" s="8">
         <v>20</v>
       </c>
-      <c r="BC4" s="30" t="s">
+      <c r="BD4" s="30" t="s">
         <v>298</v>
       </c>
-      <c r="BE4" s="32" t="s">
+      <c r="BF4" s="32" t="s">
         <v>286</v>
       </c>
-      <c r="BF4" s="25">
+      <c r="BG4" s="25">
         <v>3</v>
       </c>
-      <c r="BG4" s="25" t="s">
+      <c r="BH4" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="BH4" s="25" t="s">
+      <c r="BI4" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="BJ4" s="12" t="s">
+      <c r="BK4" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="BK4" s="12" t="s">
+      <c r="BL4" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="BL4" s="12">
+      <c r="BM4" s="12">
         <v>10</v>
       </c>
-      <c r="BM4" s="42" t="s">
+      <c r="BN4" s="36" t="s">
         <v>297</v>
       </c>
-      <c r="BO4" s="20" t="s">
+      <c r="BP4" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="BP4" s="20">
+      <c r="BQ4" s="20">
         <v>4</v>
       </c>
-      <c r="BQ4" s="20">
+      <c r="BR4" s="20">
         <v>2242</v>
       </c>
-      <c r="CD4" s="31">
+      <c r="CE4" s="31">
         <v>2</v>
       </c>
-      <c r="CE4" s="12" t="s">
+      <c r="CF4" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="CF4" s="12">
+      <c r="CG4" s="12">
         <v>6866</v>
       </c>
-      <c r="CH4" s="19">
+      <c r="CI4" s="19">
         <v>3</v>
       </c>
-      <c r="CI4" s="20" t="s">
+      <c r="CJ4" s="20" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="5" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -2470,62 +2508,65 @@
       <c r="AW5" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="AY5" s="23" t="s">
+      <c r="AX5" s="44" t="s">
+        <v>329</v>
+      </c>
+      <c r="AZ5" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="AZ5" s="34">
+      <c r="BA5" s="34">
         <v>1</v>
       </c>
-      <c r="BA5" s="33">
+      <c r="BB5" s="33">
         <v>38</v>
       </c>
-      <c r="BB5" s="8">
+      <c r="BC5" s="8">
         <v>30</v>
       </c>
-      <c r="BC5" s="30" t="s">
+      <c r="BD5" s="30" t="s">
         <v>289</v>
       </c>
-      <c r="BE5" s="32" t="s">
+      <c r="BF5" s="32" t="s">
         <v>287</v>
       </c>
-      <c r="BF5" s="25">
+      <c r="BG5" s="25">
         <v>9</v>
       </c>
-      <c r="BG5" s="25" t="s">
+      <c r="BH5" s="25" t="s">
         <v>284</v>
       </c>
-      <c r="BH5" s="25" t="s">
+      <c r="BI5" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="BJ5" s="12" t="s">
+      <c r="BK5" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="BK5" s="12" t="s">
+      <c r="BL5" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="BL5" s="12">
+      <c r="BM5" s="12">
         <v>20</v>
       </c>
-      <c r="BM5" s="42" t="s">
+      <c r="BN5" s="36" t="s">
         <v>247</v>
       </c>
-      <c r="BO5" s="20" t="s">
+      <c r="BP5" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="BP5" s="20">
+      <c r="BQ5" s="20">
         <v>5</v>
       </c>
-      <c r="BQ5" s="20">
+      <c r="BR5" s="20">
         <v>2424</v>
       </c>
-      <c r="CH5" s="19">
+      <c r="CI5" s="19">
         <v>4</v>
       </c>
-      <c r="CI5" s="20" t="s">
+      <c r="CJ5" s="20" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="6" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -2637,53 +2678,56 @@
       <c r="AW6" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="AY6" s="23" t="s">
+      <c r="AX6" s="44" t="s">
+        <v>330</v>
+      </c>
+      <c r="AZ6" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="AZ6" s="34">
+      <c r="BA6" s="34">
         <v>2</v>
       </c>
-      <c r="BA6" s="33">
+      <c r="BB6" s="33">
         <v>25</v>
       </c>
-      <c r="BB6" s="8">
+      <c r="BC6" s="8">
         <v>20</v>
       </c>
-      <c r="BC6" s="30" t="s">
+      <c r="BD6" s="30" t="s">
         <v>292</v>
       </c>
-      <c r="BE6" s="32" t="s">
+      <c r="BF6" s="32" t="s">
         <v>288</v>
       </c>
-      <c r="BF6" s="25">
+      <c r="BG6" s="25">
         <v>4</v>
       </c>
-      <c r="BG6" s="25" t="s">
+      <c r="BH6" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="BH6" s="25" t="s">
+      <c r="BI6" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="BJ6" s="12" t="s">
+      <c r="BK6" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="BK6" s="12" t="s">
+      <c r="BL6" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="BL6" s="12">
+      <c r="BM6" s="12">
         <v>15</v>
       </c>
-      <c r="BM6" s="42" t="s">
+      <c r="BN6" s="36" t="s">
         <v>290</v>
       </c>
-      <c r="CH6" s="19">
+      <c r="CI6" s="19">
         <v>5</v>
       </c>
-      <c r="CI6" s="20" t="s">
+      <c r="CJ6" s="20" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="7" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
@@ -2795,41 +2839,44 @@
       <c r="AW7" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="AY7" s="23" t="s">
+      <c r="AX7" s="44" t="s">
+        <v>331</v>
+      </c>
+      <c r="AZ7" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="AZ7" s="34">
+      <c r="BA7" s="34">
         <v>3</v>
       </c>
-      <c r="BA7" s="33">
+      <c r="BB7" s="33">
         <v>37</v>
       </c>
-      <c r="BB7" s="8">
+      <c r="BC7" s="8">
         <v>30</v>
       </c>
-      <c r="BC7" s="30" t="s">
+      <c r="BD7" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="BJ7" s="12" t="s">
+      <c r="BK7" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="BK7" s="12" t="s">
+      <c r="BL7" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="BL7" s="12">
+      <c r="BM7" s="12">
         <v>20</v>
       </c>
-      <c r="BM7" s="42" t="s">
+      <c r="BN7" s="36" t="s">
         <v>249</v>
       </c>
-      <c r="CH7" s="19">
+      <c r="CI7" s="19">
         <v>6</v>
       </c>
-      <c r="CI7" s="20" t="s">
+      <c r="CJ7" s="20" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="8" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:88" x14ac:dyDescent="0.2">
       <c r="D8" s="3">
         <v>6</v>
       </c>
@@ -2923,41 +2970,41 @@
       <c r="AR8" s="12">
         <v>2</v>
       </c>
-      <c r="AY8" s="23" t="s">
+      <c r="AZ8" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="AZ8" s="34">
+      <c r="BA8" s="34">
         <v>3</v>
       </c>
-      <c r="BA8" s="33">
+      <c r="BB8" s="33">
         <v>49</v>
       </c>
-      <c r="BB8" s="8">
+      <c r="BC8" s="8">
         <v>40</v>
       </c>
-      <c r="BC8" s="30" t="s">
+      <c r="BD8" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="BJ8" s="12" t="s">
+      <c r="BK8" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="BK8" s="12" t="s">
+      <c r="BL8" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="BL8" s="12">
+      <c r="BM8" s="12">
         <v>10</v>
       </c>
-      <c r="BM8" s="42" t="s">
+      <c r="BN8" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="CH8" s="19">
+      <c r="CI8" s="19">
         <v>7</v>
       </c>
-      <c r="CI8" s="20" t="s">
+      <c r="CJ8" s="20" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="9" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:88" x14ac:dyDescent="0.2">
       <c r="D9" s="3">
         <v>7</v>
       </c>
@@ -3051,41 +3098,41 @@
       <c r="AR9" s="12">
         <v>1</v>
       </c>
-      <c r="AY9" s="23" t="s">
+      <c r="AZ9" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="AZ9" s="34">
+      <c r="BA9" s="34">
         <v>4</v>
       </c>
-      <c r="BA9" s="33">
+      <c r="BB9" s="33">
         <v>24</v>
       </c>
-      <c r="BB9" s="8">
+      <c r="BC9" s="8">
         <v>20</v>
       </c>
-      <c r="BC9" s="30" t="s">
+      <c r="BD9" s="30" t="s">
         <v>290</v>
       </c>
-      <c r="BJ9" s="12" t="s">
+      <c r="BK9" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="BK9" s="12" t="s">
+      <c r="BL9" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="BL9" s="12">
+      <c r="BM9" s="12">
         <v>20</v>
       </c>
-      <c r="BM9" s="42" t="s">
+      <c r="BN9" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="CH9" s="19">
+      <c r="CI9" s="19">
         <v>8</v>
       </c>
-      <c r="CI9" s="20" t="s">
+      <c r="CJ9" s="20" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="10" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:88" x14ac:dyDescent="0.2">
       <c r="H10" s="1"/>
       <c r="K10" s="12" t="s">
         <v>86</v>
@@ -3162,41 +3209,41 @@
       <c r="AR10" s="12">
         <v>2</v>
       </c>
-      <c r="AY10" s="23" t="s">
+      <c r="AZ10" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="AZ10" s="34">
+      <c r="BA10" s="34">
         <v>4</v>
       </c>
-      <c r="BA10" s="33">
+      <c r="BB10" s="33">
         <v>37</v>
       </c>
-      <c r="BB10" s="8">
+      <c r="BC10" s="8">
         <v>30</v>
       </c>
-      <c r="BC10" s="30" t="s">
+      <c r="BD10" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="BJ10" s="12" t="s">
+      <c r="BK10" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="BK10" s="12" t="s">
+      <c r="BL10" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="BL10" s="12">
+      <c r="BM10" s="12">
         <v>5</v>
       </c>
-      <c r="BM10" s="42" t="s">
+      <c r="BN10" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="CH10" s="19">
+      <c r="CI10" s="19">
         <v>9</v>
       </c>
-      <c r="CI10" s="20" t="s">
+      <c r="CJ10" s="20" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="11" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:88" x14ac:dyDescent="0.2">
       <c r="K11" s="12" t="s">
         <v>91</v>
       </c>
@@ -3272,41 +3319,41 @@
       <c r="AR11" s="12">
         <v>2</v>
       </c>
-      <c r="AY11" s="23" t="s">
+      <c r="AZ11" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="AZ11" s="34">
+      <c r="BA11" s="34">
         <v>4</v>
       </c>
-      <c r="BA11" s="33">
+      <c r="BB11" s="33">
         <v>25</v>
       </c>
-      <c r="BB11" s="8">
+      <c r="BC11" s="8">
         <v>20</v>
       </c>
-      <c r="BC11" s="30" t="s">
+      <c r="BD11" s="30" t="s">
         <v>291</v>
       </c>
-      <c r="BJ11" s="12" t="s">
+      <c r="BK11" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="BK11" s="12" t="s">
+      <c r="BL11" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="BL11" s="12">
+      <c r="BM11" s="12">
         <v>20</v>
       </c>
-      <c r="BM11" s="42" t="s">
+      <c r="BN11" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="CH11" s="19">
+      <c r="CI11" s="19">
         <v>10</v>
       </c>
-      <c r="CI11" s="20" t="s">
+      <c r="CJ11" s="20" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="12" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:88" x14ac:dyDescent="0.2">
       <c r="K12" s="12" t="s">
         <v>96</v>
       </c>
@@ -3382,41 +3429,41 @@
       <c r="AR12" s="12">
         <v>1</v>
       </c>
-      <c r="AY12" s="23" t="s">
+      <c r="AZ12" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="AZ12" s="34">
+      <c r="BA12" s="34">
         <v>4</v>
       </c>
-      <c r="BA12" s="33">
+      <c r="BB12" s="33">
         <v>50</v>
       </c>
-      <c r="BB12" s="8">
+      <c r="BC12" s="8">
         <v>40</v>
       </c>
-      <c r="BC12" s="30" t="s">
+      <c r="BD12" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="BJ12" s="12" t="s">
+      <c r="BK12" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="BK12" s="12" t="s">
+      <c r="BL12" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="BL12" s="12">
+      <c r="BM12" s="12">
         <v>10</v>
       </c>
-      <c r="BM12" s="42" t="s">
+      <c r="BN12" s="36" t="s">
         <v>291</v>
       </c>
-      <c r="CH12" s="19">
+      <c r="CI12" s="19">
         <v>11</v>
       </c>
-      <c r="CI12" s="20" t="s">
+      <c r="CJ12" s="20" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="13" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:88" x14ac:dyDescent="0.2">
       <c r="K13" s="12" t="s">
         <v>102</v>
       </c>
@@ -3492,41 +3539,41 @@
       <c r="AR13" s="12">
         <v>2</v>
       </c>
-      <c r="AY13" s="23" t="s">
+      <c r="AZ13" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="AZ13" s="34">
+      <c r="BA13" s="34">
         <v>5</v>
       </c>
-      <c r="BA13" s="33">
+      <c r="BB13" s="33">
         <v>26</v>
       </c>
-      <c r="BB13" s="8">
+      <c r="BC13" s="8">
         <v>20</v>
       </c>
-      <c r="BC13" s="30" t="s">
+      <c r="BD13" s="30" t="s">
         <v>295</v>
       </c>
-      <c r="BJ13" s="12" t="s">
+      <c r="BK13" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="BK13" s="12" t="s">
+      <c r="BL13" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="BL13" s="12">
+      <c r="BM13" s="12">
         <v>10</v>
       </c>
-      <c r="BM13" s="42" t="s">
+      <c r="BN13" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="CH13" s="19">
+      <c r="CI13" s="19">
         <v>12</v>
       </c>
-      <c r="CI13" s="20" t="s">
+      <c r="CJ13" s="20" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="14" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:88" x14ac:dyDescent="0.2">
       <c r="K14" s="12" t="s">
         <v>110</v>
       </c>
@@ -3590,41 +3637,41 @@
       <c r="AR14" s="12">
         <v>3</v>
       </c>
-      <c r="AY14" s="23" t="s">
+      <c r="AZ14" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="AZ14" s="34">
+      <c r="BA14" s="34">
         <v>6</v>
       </c>
-      <c r="BA14" s="33">
+      <c r="BB14" s="33">
         <v>37</v>
       </c>
-      <c r="BB14" s="8">
+      <c r="BC14" s="8">
         <v>30</v>
       </c>
-      <c r="BC14" s="30" t="s">
+      <c r="BD14" s="30" t="s">
         <v>294</v>
       </c>
-      <c r="BJ14" s="12" t="s">
+      <c r="BK14" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="BK14" s="12" t="s">
+      <c r="BL14" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="BL14" s="12">
+      <c r="BM14" s="12">
         <v>10</v>
       </c>
-      <c r="BM14" s="42" t="s">
+      <c r="BN14" s="36" t="s">
         <v>295</v>
       </c>
-      <c r="CH14" s="19">
+      <c r="CI14" s="19">
         <v>13</v>
       </c>
-      <c r="CI14" s="20" t="s">
+      <c r="CJ14" s="20" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="15" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:88" x14ac:dyDescent="0.2">
       <c r="K15" s="12" t="s">
         <v>113</v>
       </c>
@@ -3688,41 +3735,41 @@
       <c r="AR15" s="12">
         <v>2</v>
       </c>
-      <c r="AY15" s="23" t="s">
+      <c r="AZ15" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="AZ15" s="34">
+      <c r="BA15" s="34">
         <v>7</v>
       </c>
-      <c r="BA15" s="33">
+      <c r="BB15" s="33">
         <v>38</v>
       </c>
-      <c r="BB15" s="8">
+      <c r="BC15" s="8">
         <v>30</v>
       </c>
-      <c r="BC15" s="30" t="s">
+      <c r="BD15" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="BJ15" s="12" t="s">
+      <c r="BK15" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="BK15" s="12" t="s">
+      <c r="BL15" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="BL15" s="12">
+      <c r="BM15" s="12">
         <v>10</v>
       </c>
-      <c r="BM15" s="42" t="s">
+      <c r="BN15" s="36" t="s">
         <v>294</v>
       </c>
-      <c r="CH15" s="19">
+      <c r="CI15" s="19">
         <v>14</v>
       </c>
-      <c r="CI15" s="20" t="s">
+      <c r="CJ15" s="20" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="16" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:88" x14ac:dyDescent="0.2">
       <c r="K16" s="12" t="s">
         <v>119</v>
       </c>
@@ -3786,26 +3833,26 @@
       <c r="AR16" s="12">
         <v>1</v>
       </c>
-      <c r="BJ16" s="12" t="s">
+      <c r="BK16" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="BK16" s="12" t="s">
+      <c r="BL16" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="BL16" s="12">
+      <c r="BM16" s="12">
         <v>15</v>
       </c>
-      <c r="BM16" s="42" t="s">
+      <c r="BN16" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="CH16" s="19">
+      <c r="CI16" s="19">
         <v>15</v>
       </c>
-      <c r="CI16" s="20" t="s">
+      <c r="CJ16" s="20" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="17" spans="11:87" x14ac:dyDescent="0.2">
+    <row r="17" spans="11:88" x14ac:dyDescent="0.2">
       <c r="K17" s="12" t="s">
         <v>125</v>
       </c>
@@ -3869,26 +3916,26 @@
       <c r="AR17" s="12">
         <v>4</v>
       </c>
-      <c r="BJ17" s="12" t="s">
+      <c r="BK17" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="BK17" s="12" t="s">
+      <c r="BL17" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="BL17" s="12">
+      <c r="BM17" s="12">
         <v>15</v>
       </c>
-      <c r="BM17" s="42" t="s">
+      <c r="BN17" s="36" t="s">
         <v>246</v>
       </c>
-      <c r="CH17" s="19">
+      <c r="CI17" s="19">
         <v>16</v>
       </c>
-      <c r="CI17" s="20" t="s">
+      <c r="CJ17" s="20" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="18" spans="11:87" x14ac:dyDescent="0.2">
+    <row r="18" spans="11:88" x14ac:dyDescent="0.2">
       <c r="K18" s="12" t="s">
         <v>131</v>
       </c>
@@ -3952,26 +3999,26 @@
       <c r="AR18" s="12">
         <v>2</v>
       </c>
-      <c r="BJ18" s="12" t="s">
+      <c r="BK18" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="BK18" s="12" t="s">
+      <c r="BL18" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="BL18" s="12">
+      <c r="BM18" s="12">
         <v>5</v>
       </c>
-      <c r="BM18" s="42" t="s">
+      <c r="BN18" s="36" t="s">
         <v>306</v>
       </c>
-      <c r="CH18" s="19">
+      <c r="CI18" s="19">
         <v>17</v>
       </c>
-      <c r="CI18" s="20" t="s">
+      <c r="CJ18" s="20" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="19" spans="11:87" x14ac:dyDescent="0.2">
+    <row r="19" spans="11:88" x14ac:dyDescent="0.2">
       <c r="K19" s="12" t="s">
         <v>138</v>
       </c>
@@ -4029,26 +4076,26 @@
       <c r="AR19" s="12">
         <v>1</v>
       </c>
-      <c r="BJ19" s="12" t="s">
+      <c r="BK19" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="BK19" s="12" t="s">
+      <c r="BL19" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="BL19" s="12">
+      <c r="BM19" s="12">
         <v>10</v>
       </c>
-      <c r="BM19" s="42" t="s">
+      <c r="BN19" s="36" t="s">
         <v>322</v>
       </c>
-      <c r="CH19" s="19">
+      <c r="CI19" s="19">
         <v>18</v>
       </c>
-      <c r="CI19" s="20" t="s">
+      <c r="CJ19" s="20" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="20" spans="11:87" x14ac:dyDescent="0.2">
+    <row r="20" spans="11:88" x14ac:dyDescent="0.2">
       <c r="K20" s="12" t="s">
         <v>144</v>
       </c>
@@ -4106,14 +4153,14 @@
       <c r="AR20" s="12">
         <v>2</v>
       </c>
-      <c r="CH20" s="19">
+      <c r="CI20" s="19">
         <v>19</v>
       </c>
-      <c r="CI20" s="20" t="s">
+      <c r="CJ20" s="20" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="21" spans="11:87" x14ac:dyDescent="0.2">
+    <row r="21" spans="11:88" x14ac:dyDescent="0.2">
       <c r="K21" s="12" t="s">
         <v>150</v>
       </c>
@@ -4171,14 +4218,14 @@
       <c r="AR21" s="12">
         <v>2</v>
       </c>
-      <c r="CH21" s="19">
+      <c r="CI21" s="19">
         <v>20</v>
       </c>
-      <c r="CI21" s="20" t="s">
+      <c r="CJ21" s="20" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="22" spans="11:87" x14ac:dyDescent="0.2">
+    <row r="22" spans="11:88" x14ac:dyDescent="0.2">
       <c r="K22" s="12" t="s">
         <v>156</v>
       </c>
@@ -4236,14 +4283,14 @@
       <c r="AR22" s="12">
         <v>1</v>
       </c>
-      <c r="CH22" s="19">
+      <c r="CI22" s="19">
         <v>21</v>
       </c>
-      <c r="CI22" s="20" t="s">
+      <c r="CJ22" s="20" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="23" spans="11:87" x14ac:dyDescent="0.2">
+    <row r="23" spans="11:88" x14ac:dyDescent="0.2">
       <c r="K23" s="12" t="s">
         <v>161</v>
       </c>
@@ -4302,7 +4349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="11:87" x14ac:dyDescent="0.2">
+    <row r="24" spans="11:88" x14ac:dyDescent="0.2">
       <c r="AO24" s="12" t="s">
         <v>269</v>
       </c>
@@ -4316,7 +4363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="11:87" x14ac:dyDescent="0.2">
+    <row r="25" spans="11:88" x14ac:dyDescent="0.2">
       <c r="AO25" s="12" t="s">
         <v>270</v>
       </c>
@@ -4330,7 +4377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="11:87" x14ac:dyDescent="0.2">
+    <row r="26" spans="11:88" x14ac:dyDescent="0.2">
       <c r="AO26" s="12" t="s">
         <v>270</v>
       </c>
@@ -4346,22 +4393,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="CD1:CF1"/>
-    <mergeCell ref="BO1:BQ1"/>
-    <mergeCell ref="BX1:CB1"/>
-    <mergeCell ref="BS1:BV1"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AO1:AR1"/>
-    <mergeCell ref="AY1:BC1"/>
-    <mergeCell ref="BE1:BH1"/>
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="BJ1:BM1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="K1:W1"/>
     <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="CE1:CG1"/>
+    <mergeCell ref="BP1:BR1"/>
+    <mergeCell ref="BY1:CC1"/>
+    <mergeCell ref="BT1:BW1"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AO1:AR1"/>
+    <mergeCell ref="AZ1:BD1"/>
+    <mergeCell ref="BF1:BI1"/>
+    <mergeCell ref="BK1:BN1"/>
+    <mergeCell ref="AT1:AX1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="N5" r:id="rId1" xr:uid="{FBCC3CB6-0C9B-634F-9A28-6994F7F8331B}"/>

--- a/TOAD_FINAL/REGISTROS.xlsx
+++ b/TOAD_FINAL/REGISTROS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mr.blissfulgrin/Documents/UAH_2017_2018/BASES_DE_DATOS/LAB/PECL2/BBDD/TOAD_FINAL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEE05CE-E69C-134D-95E6-1301C7A512E1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C58BA4E-35B0-284D-BD1A-3A09B3B946E5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" xr2:uid="{BEAE42A8-50CD-654F-B009-9630567E009C}"/>
   </bookViews>

--- a/TOAD_FINAL/REGISTROS.xlsx
+++ b/TOAD_FINAL/REGISTROS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mr.blissfulgrin/Documents/UAH_2017_2018/BASES_DE_DATOS/LAB/PECL2/BBDD/TOAD_FINAL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C58BA4E-35B0-284D-BD1A-3A09B3B946E5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20763F59-9D85-D249-B067-4145ED2E3701}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" xr2:uid="{BEAE42A8-50CD-654F-B009-9630567E009C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="355">
   <si>
     <t>Tienda</t>
   </si>
@@ -1021,6 +1021,75 @@
   </si>
   <si>
     <t>L4Bu3n4C0ntr53Ñ4JAjan0</t>
+  </si>
+  <si>
+    <t>2010-08-06 15:16:14</t>
+  </si>
+  <si>
+    <t>1918-11-22 16:14:15</t>
+  </si>
+  <si>
+    <t>2232-12-22 09:34:48</t>
+  </si>
+  <si>
+    <t>1022-07-02 10:13:15</t>
+  </si>
+  <si>
+    <t>1054-11-01 12:23:54</t>
+  </si>
+  <si>
+    <t>2035-02-22 19:38:48</t>
+  </si>
+  <si>
+    <t>1938-12-13 15:13:14</t>
+  </si>
+  <si>
+    <t>2210-03-12 12:12:12</t>
+  </si>
+  <si>
+    <t>1947-01-23 11:11:14</t>
+  </si>
+  <si>
+    <t>1985-02-07 14:00:23</t>
+  </si>
+  <si>
+    <t>1492-12-08 11:05:03</t>
+  </si>
+  <si>
+    <t>1798-08-08 19:30:33</t>
+  </si>
+  <si>
+    <t>1614-01-01 12:23:54</t>
+  </si>
+  <si>
+    <t>2015-02-22 19:38:48</t>
+  </si>
+  <si>
+    <t>2011-05-10 17:40:45</t>
+  </si>
+  <si>
+    <t>2002-12-07 03:16:54</t>
+  </si>
+  <si>
+    <t>1904-02-23 19:58:19</t>
+  </si>
+  <si>
+    <t>2011-08-27 22:16:46</t>
+  </si>
+  <si>
+    <t>2110-10-26 05:06:44</t>
+  </si>
+  <si>
+    <t>2404-06-16 06:36:15</t>
+  </si>
+  <si>
+    <t>2031-05-10 17:40:45</t>
+  </si>
+  <si>
+    <t>1921-12-20 11:31:24</t>
+  </si>
+  <si>
+    <t>1461-08-14 07:32:15</t>
   </si>
 </sst>
 </file>
@@ -1187,7 +1256,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1251,26 +1320,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1586,10 +1656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8223B3-2A23-8943-9586-3C515A3B42E3}">
-  <dimension ref="A1:CJ26"/>
+  <dimension ref="A1:CK27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AX7" sqref="AX7"/>
+    <sheetView tabSelected="1" topLeftCell="AO5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="AU24" sqref="AU24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1619,71 +1689,72 @@
     <col min="39" max="39" width="12.83203125" customWidth="1"/>
     <col min="42" max="42" width="12" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="16" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="16.5" customWidth="1"/>
-    <col min="47" max="47" width="14.6640625" customWidth="1"/>
-    <col min="48" max="48" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="24.1640625" customWidth="1"/>
-    <col min="52" max="52" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="16" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="17" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="18.5" customWidth="1"/>
-    <col min="72" max="72" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="151.33203125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="16.5" customWidth="1"/>
+    <col min="48" max="48" width="14.6640625" customWidth="1"/>
+    <col min="49" max="49" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="24.1640625" customWidth="1"/>
+    <col min="53" max="53" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="16" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="17" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="18.5" customWidth="1"/>
+    <col min="73" max="73" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="151.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="39"/>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="K1" s="37" t="s">
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="K1" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="Y1" s="38" t="s">
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="Y1" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="Z1" s="38"/>
-      <c r="AB1" s="40" t="s">
+      <c r="Z1" s="42"/>
+      <c r="AB1" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
       <c r="AF1" s="18"/>
       <c r="AG1" s="39" t="s">
         <v>181</v>
@@ -1691,73 +1762,74 @@
       <c r="AH1" s="39"/>
       <c r="AI1" s="39"/>
       <c r="AJ1" s="39"/>
-      <c r="AL1" s="41" t="s">
+      <c r="AL1" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="AM1" s="41"/>
-      <c r="AO1" s="37" t="s">
+      <c r="AM1" s="43"/>
+      <c r="AO1" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="AP1" s="37"/>
-      <c r="AQ1" s="37"/>
-      <c r="AR1" s="37"/>
-      <c r="AT1" s="40" t="s">
+      <c r="AP1" s="41"/>
+      <c r="AQ1" s="41"/>
+      <c r="AR1" s="41"/>
+      <c r="AS1" s="41"/>
+      <c r="AU1" s="44" t="s">
         <v>193</v>
       </c>
-      <c r="AU1" s="40"/>
-      <c r="AV1" s="40"/>
-      <c r="AW1" s="40"/>
-      <c r="AX1" s="40"/>
-      <c r="AZ1" s="39" t="s">
+      <c r="AV1" s="44"/>
+      <c r="AW1" s="44"/>
+      <c r="AX1" s="44"/>
+      <c r="AY1" s="44"/>
+      <c r="BA1" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="BA1" s="39"/>
       <c r="BB1" s="39"/>
       <c r="BC1" s="39"/>
       <c r="BD1" s="39"/>
-      <c r="BF1" s="41" t="s">
+      <c r="BE1" s="39"/>
+      <c r="BG1" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="BG1" s="41"/>
-      <c r="BH1" s="41"/>
-      <c r="BI1" s="41"/>
-      <c r="BK1" s="37" t="s">
+      <c r="BH1" s="43"/>
+      <c r="BI1" s="43"/>
+      <c r="BJ1" s="43"/>
+      <c r="BL1" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="BL1" s="37"/>
-      <c r="BM1" s="37"/>
-      <c r="BN1" s="37"/>
-      <c r="BP1" s="38" t="s">
+      <c r="BM1" s="41"/>
+      <c r="BN1" s="41"/>
+      <c r="BO1" s="41"/>
+      <c r="BQ1" s="42" t="s">
         <v>201</v>
       </c>
-      <c r="BQ1" s="38"/>
-      <c r="BR1" s="38"/>
-      <c r="BT1" s="40" t="s">
+      <c r="BR1" s="42"/>
+      <c r="BS1" s="42"/>
+      <c r="BU1" s="44" t="s">
         <v>280</v>
       </c>
-      <c r="BU1" s="40"/>
-      <c r="BV1" s="40"/>
-      <c r="BW1" s="40"/>
-      <c r="BY1" s="39" t="s">
+      <c r="BV1" s="44"/>
+      <c r="BW1" s="44"/>
+      <c r="BX1" s="44"/>
+      <c r="BZ1" s="39" t="s">
         <v>281</v>
       </c>
-      <c r="BZ1" s="39"/>
       <c r="CA1" s="39"/>
       <c r="CB1" s="39"/>
       <c r="CC1" s="39"/>
-      <c r="CE1" s="37" t="s">
+      <c r="CD1" s="39"/>
+      <c r="CF1" s="41" t="s">
         <v>200</v>
       </c>
-      <c r="CF1" s="37"/>
-      <c r="CG1" s="37"/>
-      <c r="CI1" s="35" t="s">
+      <c r="CG1" s="41"/>
+      <c r="CH1" s="41"/>
+      <c r="CJ1" s="35" t="s">
         <v>299</v>
       </c>
-      <c r="CJ1" s="35" t="s">
+      <c r="CK1" s="35" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1869,113 +1941,116 @@
       <c r="AR2" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="AT2" s="21" t="s">
+      <c r="AS2" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="AU2" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="AU2" s="21" t="s">
+      <c r="AV2" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AV2" s="21" t="s">
+      <c r="AW2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="AW2" s="21" t="s">
+      <c r="AX2" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="AX2" s="21" t="s">
+      <c r="AY2" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="AZ2" s="2" t="s">
+      <c r="BA2" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="BA2" s="2" t="s">
+      <c r="BB2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="BB2" s="2" t="s">
+      <c r="BC2" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="BC2" s="2" t="s">
+      <c r="BD2" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="BD2" s="2" t="s">
+      <c r="BE2" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="BF2" s="24" t="s">
+      <c r="BG2" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="BG2" s="24" t="s">
+      <c r="BH2" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="BH2" s="24" t="s">
+      <c r="BI2" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="BI2" s="24" t="s">
+      <c r="BJ2" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="BK2" s="11" t="s">
+      <c r="BL2" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="BL2" s="11" t="s">
+      <c r="BM2" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="BM2" s="11" t="s">
+      <c r="BN2" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="BN2" s="11" t="s">
+      <c r="BO2" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="BP2" s="19" t="s">
+      <c r="BQ2" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="BQ2" s="19" t="s">
+      <c r="BR2" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="BR2" s="19" t="s">
+      <c r="BS2" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="BT2" s="21" t="s">
+      <c r="BU2" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="BU2" s="21" t="s">
+      <c r="BV2" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="BV2" s="21" t="s">
+      <c r="BW2" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="BW2" s="21" t="s">
+      <c r="BX2" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="BY2" s="2" t="s">
+      <c r="BZ2" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="BZ2" s="2" t="s">
+      <c r="CA2" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="CA2" s="2" t="s">
+      <c r="CB2" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="CB2" s="2" t="s">
+      <c r="CC2" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="CC2" s="2" t="s">
+      <c r="CD2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="CE2" s="11" t="s">
+      <c r="CF2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="CF2" s="11" t="s">
+      <c r="CG2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="CG2" s="11" t="s">
+      <c r="CH2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="CI2" s="19">
+      <c r="CJ2" s="19">
         <v>1</v>
       </c>
-      <c r="CJ2" s="20" t="s">
+      <c r="CK2" s="20" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="3" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
@@ -2087,113 +2162,116 @@
       <c r="AR3" s="12">
         <v>1</v>
       </c>
-      <c r="AT3" s="22" t="s">
+      <c r="AS3" s="36" t="s">
+        <v>332</v>
+      </c>
+      <c r="AU3" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="AU3" s="22" t="s">
+      <c r="AV3" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="AV3" s="22" t="s">
+      <c r="AW3" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="AW3" s="29" t="s">
+      <c r="AX3" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="AX3" s="43" t="s">
+      <c r="AY3" s="37" t="s">
         <v>327</v>
       </c>
-      <c r="AZ3" s="23" t="s">
+      <c r="BA3" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="BA3" s="34">
+      <c r="BB3" s="34">
         <v>0</v>
       </c>
-      <c r="BB3" s="33">
+      <c r="BC3" s="33">
         <v>25</v>
       </c>
-      <c r="BC3" s="8">
+      <c r="BD3" s="8">
         <v>20</v>
       </c>
-      <c r="BD3" s="30" t="s">
+      <c r="BE3" s="30" t="s">
         <v>293</v>
       </c>
-      <c r="BF3" s="32" t="s">
+      <c r="BG3" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="BG3" s="25">
+      <c r="BH3" s="25">
         <v>10</v>
       </c>
-      <c r="BH3" s="25" t="s">
+      <c r="BI3" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="BI3" s="25" t="s">
+      <c r="BJ3" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="BK3" s="12" t="s">
+      <c r="BL3" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="BL3" s="12" t="s">
+      <c r="BM3" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="BM3" s="12">
+      <c r="BN3" s="12">
         <v>20</v>
       </c>
-      <c r="BN3" s="36" t="s">
+      <c r="BO3" s="36" t="s">
         <v>292</v>
       </c>
-      <c r="BP3" s="20" t="s">
+      <c r="BQ3" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="BQ3" s="20">
+      <c r="BR3" s="20">
         <v>3</v>
       </c>
-      <c r="BR3" s="20">
+      <c r="BS3" s="20">
         <v>2393</v>
       </c>
-      <c r="BT3" s="22">
+      <c r="BU3" s="22">
         <v>6</v>
       </c>
-      <c r="BU3" s="22">
+      <c r="BV3" s="22">
         <v>24</v>
       </c>
-      <c r="BV3" s="22">
+      <c r="BW3" s="22">
         <v>5609</v>
       </c>
-      <c r="BW3" s="22">
+      <c r="BX3" s="22">
         <v>4656</v>
       </c>
-      <c r="BY3" s="23">
+      <c r="BZ3" s="23">
         <v>7</v>
       </c>
-      <c r="BZ3" s="23">
+      <c r="CA3" s="23">
         <v>28</v>
       </c>
-      <c r="CA3" s="23" t="s">
+      <c r="CB3" s="23" t="s">
         <v>279</v>
       </c>
-      <c r="CB3" s="23">
+      <c r="CC3" s="23">
         <v>9234</v>
       </c>
-      <c r="CC3" s="23">
+      <c r="CD3" s="23">
         <v>5656</v>
       </c>
-      <c r="CE3" s="31">
+      <c r="CF3" s="31">
         <v>1</v>
       </c>
-      <c r="CF3" s="12" t="s">
+      <c r="CG3" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="CG3" s="12">
+      <c r="CH3" s="12">
         <v>6787</v>
       </c>
-      <c r="CI3" s="19">
+      <c r="CJ3" s="19">
         <v>2</v>
       </c>
-      <c r="CJ3" s="20" t="s">
+      <c r="CK3" s="20" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="4" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
@@ -2305,86 +2383,89 @@
       <c r="AR4" s="12">
         <v>1</v>
       </c>
-      <c r="AT4" s="22" t="s">
+      <c r="AS4" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="AU4" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="AU4" s="22" t="s">
+      <c r="AV4" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="AV4" s="22" t="s">
+      <c r="AW4" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="AW4" s="29" t="s">
+      <c r="AX4" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="AX4" s="44" t="s">
+      <c r="AY4" s="38" t="s">
         <v>328</v>
       </c>
-      <c r="AZ4" s="23" t="s">
+      <c r="BA4" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="BA4" s="34">
+      <c r="BB4" s="34">
         <v>0</v>
       </c>
-      <c r="BB4" s="33">
+      <c r="BC4" s="33">
         <v>26</v>
       </c>
-      <c r="BC4" s="8">
+      <c r="BD4" s="8">
         <v>20</v>
       </c>
-      <c r="BD4" s="30" t="s">
+      <c r="BE4" s="30" t="s">
         <v>298</v>
       </c>
-      <c r="BF4" s="32" t="s">
+      <c r="BG4" s="32" t="s">
         <v>286</v>
       </c>
-      <c r="BG4" s="25">
+      <c r="BH4" s="25">
         <v>3</v>
       </c>
-      <c r="BH4" s="25" t="s">
+      <c r="BI4" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="BI4" s="25" t="s">
+      <c r="BJ4" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="BK4" s="12" t="s">
+      <c r="BL4" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="BL4" s="12" t="s">
+      <c r="BM4" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="BM4" s="12">
+      <c r="BN4" s="12">
         <v>10</v>
       </c>
-      <c r="BN4" s="36" t="s">
+      <c r="BO4" s="36" t="s">
         <v>297</v>
       </c>
-      <c r="BP4" s="20" t="s">
+      <c r="BQ4" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="BQ4" s="20">
+      <c r="BR4" s="20">
         <v>4</v>
       </c>
-      <c r="BR4" s="20">
+      <c r="BS4" s="20">
         <v>2242</v>
       </c>
-      <c r="CE4" s="31">
+      <c r="CF4" s="31">
         <v>2</v>
       </c>
-      <c r="CF4" s="12" t="s">
+      <c r="CG4" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="CG4" s="12">
+      <c r="CH4" s="12">
         <v>6866</v>
       </c>
-      <c r="CI4" s="19">
+      <c r="CJ4" s="19">
         <v>3</v>
       </c>
-      <c r="CJ4" s="20" t="s">
+      <c r="CK4" s="20" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="5" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -2496,77 +2577,80 @@
       <c r="AR5" s="12">
         <v>2</v>
       </c>
-      <c r="AT5" s="22" t="s">
+      <c r="AS5" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="AU5" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="AU5" s="22" t="s">
+      <c r="AV5" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="AV5" s="22" t="s">
+      <c r="AW5" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="AW5" s="29" t="s">
+      <c r="AX5" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="AX5" s="44" t="s">
+      <c r="AY5" s="38" t="s">
         <v>329</v>
       </c>
-      <c r="AZ5" s="23" t="s">
+      <c r="BA5" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="BA5" s="34">
+      <c r="BB5" s="34">
         <v>1</v>
       </c>
-      <c r="BB5" s="33">
+      <c r="BC5" s="33">
         <v>38</v>
       </c>
-      <c r="BC5" s="8">
+      <c r="BD5" s="8">
         <v>30</v>
       </c>
-      <c r="BD5" s="30" t="s">
+      <c r="BE5" s="30" t="s">
         <v>289</v>
       </c>
-      <c r="BF5" s="32" t="s">
+      <c r="BG5" s="32" t="s">
         <v>287</v>
       </c>
-      <c r="BG5" s="25">
+      <c r="BH5" s="25">
         <v>9</v>
       </c>
-      <c r="BH5" s="25" t="s">
+      <c r="BI5" s="25" t="s">
         <v>284</v>
       </c>
-      <c r="BI5" s="25" t="s">
+      <c r="BJ5" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="BK5" s="12" t="s">
+      <c r="BL5" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="BL5" s="12" t="s">
+      <c r="BM5" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="BM5" s="12">
+      <c r="BN5" s="12">
         <v>20</v>
       </c>
-      <c r="BN5" s="36" t="s">
+      <c r="BO5" s="36" t="s">
         <v>247</v>
       </c>
-      <c r="BP5" s="20" t="s">
+      <c r="BQ5" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="BQ5" s="20">
+      <c r="BR5" s="20">
         <v>5</v>
       </c>
-      <c r="BR5" s="20">
+      <c r="BS5" s="20">
         <v>2424</v>
       </c>
-      <c r="CI5" s="19">
+      <c r="CJ5" s="19">
         <v>4</v>
       </c>
-      <c r="CJ5" s="20" t="s">
+      <c r="CK5" s="20" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="6" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -2666,68 +2750,71 @@
       <c r="AR6" s="12">
         <v>1</v>
       </c>
-      <c r="AT6" s="22" t="s">
+      <c r="AS6" s="36" t="s">
+        <v>335</v>
+      </c>
+      <c r="AU6" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="AU6" s="22" t="s">
+      <c r="AV6" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="AV6" s="22" t="s">
+      <c r="AW6" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="AW6" s="29" t="s">
+      <c r="AX6" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="AX6" s="44" t="s">
+      <c r="AY6" s="38" t="s">
         <v>330</v>
       </c>
-      <c r="AZ6" s="23" t="s">
+      <c r="BA6" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="BA6" s="34">
+      <c r="BB6" s="34">
         <v>2</v>
       </c>
-      <c r="BB6" s="33">
+      <c r="BC6" s="33">
         <v>25</v>
       </c>
-      <c r="BC6" s="8">
+      <c r="BD6" s="8">
         <v>20</v>
       </c>
-      <c r="BD6" s="30" t="s">
+      <c r="BE6" s="30" t="s">
         <v>292</v>
       </c>
-      <c r="BF6" s="32" t="s">
+      <c r="BG6" s="32" t="s">
         <v>288</v>
       </c>
-      <c r="BG6" s="25">
+      <c r="BH6" s="25">
         <v>4</v>
       </c>
-      <c r="BH6" s="25" t="s">
+      <c r="BI6" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="BI6" s="25" t="s">
+      <c r="BJ6" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="BK6" s="12" t="s">
+      <c r="BL6" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="BL6" s="12" t="s">
+      <c r="BM6" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="BM6" s="12">
+      <c r="BN6" s="12">
         <v>15</v>
       </c>
-      <c r="BN6" s="36" t="s">
+      <c r="BO6" s="36" t="s">
         <v>290</v>
       </c>
-      <c r="CI6" s="19">
+      <c r="CJ6" s="19">
         <v>5</v>
       </c>
-      <c r="CJ6" s="20" t="s">
+      <c r="CK6" s="20" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="7" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
@@ -2827,56 +2914,59 @@
       <c r="AR7" s="12">
         <v>1</v>
       </c>
-      <c r="AT7" s="22" t="s">
+      <c r="AS7" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="AU7" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="AU7" s="22" t="s">
+      <c r="AV7" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="AV7" s="22" t="s">
+      <c r="AW7" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="AW7" s="29" t="s">
+      <c r="AX7" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="AX7" s="44" t="s">
+      <c r="AY7" s="38" t="s">
         <v>331</v>
       </c>
-      <c r="AZ7" s="23" t="s">
+      <c r="BA7" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="BA7" s="34">
+      <c r="BB7" s="34">
         <v>3</v>
       </c>
-      <c r="BB7" s="33">
+      <c r="BC7" s="33">
         <v>37</v>
       </c>
-      <c r="BC7" s="8">
+      <c r="BD7" s="8">
         <v>30</v>
       </c>
-      <c r="BD7" s="30" t="s">
+      <c r="BE7" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="BK7" s="12" t="s">
+      <c r="BL7" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="BL7" s="12" t="s">
+      <c r="BM7" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="BM7" s="12">
+      <c r="BN7" s="12">
         <v>20</v>
       </c>
-      <c r="BN7" s="36" t="s">
+      <c r="BO7" s="36" t="s">
         <v>249</v>
       </c>
-      <c r="CI7" s="19">
+      <c r="CJ7" s="19">
         <v>6</v>
       </c>
-      <c r="CJ7" s="20" t="s">
+      <c r="CK7" s="20" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="8" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:89" x14ac:dyDescent="0.2">
       <c r="D8" s="3">
         <v>6</v>
       </c>
@@ -2970,41 +3060,44 @@
       <c r="AR8" s="12">
         <v>2</v>
       </c>
-      <c r="AZ8" s="23" t="s">
+      <c r="AS8" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="BA8" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="BA8" s="34">
+      <c r="BB8" s="34">
         <v>3</v>
       </c>
-      <c r="BB8" s="33">
+      <c r="BC8" s="33">
         <v>49</v>
       </c>
-      <c r="BC8" s="8">
+      <c r="BD8" s="8">
         <v>40</v>
       </c>
-      <c r="BD8" s="30" t="s">
+      <c r="BE8" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="BK8" s="12" t="s">
+      <c r="BL8" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="BL8" s="12" t="s">
+      <c r="BM8" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="BM8" s="12">
+      <c r="BN8" s="12">
         <v>10</v>
       </c>
-      <c r="BN8" s="36" t="s">
+      <c r="BO8" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="CI8" s="19">
+      <c r="CJ8" s="19">
         <v>7</v>
       </c>
-      <c r="CJ8" s="20" t="s">
+      <c r="CK8" s="20" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="9" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:89" x14ac:dyDescent="0.2">
       <c r="D9" s="3">
         <v>7</v>
       </c>
@@ -3098,41 +3191,44 @@
       <c r="AR9" s="12">
         <v>1</v>
       </c>
-      <c r="AZ9" s="23" t="s">
+      <c r="AS9" s="36" t="s">
+        <v>339</v>
+      </c>
+      <c r="BA9" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="BA9" s="34">
+      <c r="BB9" s="34">
         <v>4</v>
       </c>
-      <c r="BB9" s="33">
+      <c r="BC9" s="33">
         <v>24</v>
       </c>
-      <c r="BC9" s="8">
+      <c r="BD9" s="8">
         <v>20</v>
       </c>
-      <c r="BD9" s="30" t="s">
+      <c r="BE9" s="30" t="s">
         <v>290</v>
       </c>
-      <c r="BK9" s="12" t="s">
+      <c r="BL9" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="BL9" s="12" t="s">
+      <c r="BM9" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="BM9" s="12">
+      <c r="BN9" s="12">
         <v>20</v>
       </c>
-      <c r="BN9" s="36" t="s">
+      <c r="BO9" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="CI9" s="19">
+      <c r="CJ9" s="19">
         <v>8</v>
       </c>
-      <c r="CJ9" s="20" t="s">
+      <c r="CK9" s="20" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="10" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:89" x14ac:dyDescent="0.2">
       <c r="H10" s="1"/>
       <c r="K10" s="12" t="s">
         <v>86</v>
@@ -3209,41 +3305,44 @@
       <c r="AR10" s="12">
         <v>2</v>
       </c>
-      <c r="AZ10" s="23" t="s">
+      <c r="AS10" s="36" t="s">
+        <v>338</v>
+      </c>
+      <c r="BA10" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="BA10" s="34">
+      <c r="BB10" s="34">
         <v>4</v>
       </c>
-      <c r="BB10" s="33">
+      <c r="BC10" s="33">
         <v>37</v>
       </c>
-      <c r="BC10" s="8">
+      <c r="BD10" s="8">
         <v>30</v>
       </c>
-      <c r="BD10" s="30" t="s">
+      <c r="BE10" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="BK10" s="12" t="s">
+      <c r="BL10" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="BL10" s="12" t="s">
+      <c r="BM10" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="BM10" s="12">
+      <c r="BN10" s="12">
         <v>5</v>
       </c>
-      <c r="BN10" s="36" t="s">
+      <c r="BO10" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="CI10" s="19">
+      <c r="CJ10" s="19">
         <v>9</v>
       </c>
-      <c r="CJ10" s="20" t="s">
+      <c r="CK10" s="20" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="11" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:89" x14ac:dyDescent="0.2">
       <c r="K11" s="12" t="s">
         <v>91</v>
       </c>
@@ -3319,41 +3418,44 @@
       <c r="AR11" s="12">
         <v>2</v>
       </c>
-      <c r="AZ11" s="23" t="s">
+      <c r="AS11" s="36" t="s">
+        <v>340</v>
+      </c>
+      <c r="BA11" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="BA11" s="34">
+      <c r="BB11" s="34">
         <v>4</v>
       </c>
-      <c r="BB11" s="33">
+      <c r="BC11" s="33">
         <v>25</v>
       </c>
-      <c r="BC11" s="8">
+      <c r="BD11" s="8">
         <v>20</v>
       </c>
-      <c r="BD11" s="30" t="s">
+      <c r="BE11" s="30" t="s">
         <v>291</v>
       </c>
-      <c r="BK11" s="12" t="s">
+      <c r="BL11" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="BL11" s="12" t="s">
+      <c r="BM11" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="BM11" s="12">
+      <c r="BN11" s="12">
         <v>20</v>
       </c>
-      <c r="BN11" s="36" t="s">
+      <c r="BO11" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="CI11" s="19">
+      <c r="CJ11" s="19">
         <v>10</v>
       </c>
-      <c r="CJ11" s="20" t="s">
+      <c r="CK11" s="20" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="12" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:89" x14ac:dyDescent="0.2">
       <c r="K12" s="12" t="s">
         <v>96</v>
       </c>
@@ -3429,41 +3531,44 @@
       <c r="AR12" s="12">
         <v>1</v>
       </c>
-      <c r="AZ12" s="23" t="s">
+      <c r="AS12" s="36" t="s">
+        <v>341</v>
+      </c>
+      <c r="BA12" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="BA12" s="34">
+      <c r="BB12" s="34">
         <v>4</v>
       </c>
-      <c r="BB12" s="33">
+      <c r="BC12" s="33">
         <v>50</v>
       </c>
-      <c r="BC12" s="8">
+      <c r="BD12" s="8">
         <v>40</v>
       </c>
-      <c r="BD12" s="30" t="s">
+      <c r="BE12" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="BK12" s="12" t="s">
+      <c r="BL12" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="BL12" s="12" t="s">
+      <c r="BM12" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="BM12" s="12">
+      <c r="BN12" s="12">
         <v>10</v>
       </c>
-      <c r="BN12" s="36" t="s">
+      <c r="BO12" s="36" t="s">
         <v>291</v>
       </c>
-      <c r="CI12" s="19">
+      <c r="CJ12" s="19">
         <v>11</v>
       </c>
-      <c r="CJ12" s="20" t="s">
+      <c r="CK12" s="20" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="13" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:89" x14ac:dyDescent="0.2">
       <c r="K13" s="12" t="s">
         <v>102</v>
       </c>
@@ -3539,41 +3644,44 @@
       <c r="AR13" s="12">
         <v>2</v>
       </c>
-      <c r="AZ13" s="23" t="s">
+      <c r="AS13" s="36" t="s">
+        <v>342</v>
+      </c>
+      <c r="BA13" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="BA13" s="34">
+      <c r="BB13" s="34">
         <v>5</v>
       </c>
-      <c r="BB13" s="33">
+      <c r="BC13" s="33">
         <v>26</v>
       </c>
-      <c r="BC13" s="8">
+      <c r="BD13" s="8">
         <v>20</v>
       </c>
-      <c r="BD13" s="30" t="s">
+      <c r="BE13" s="30" t="s">
         <v>295</v>
       </c>
-      <c r="BK13" s="12" t="s">
+      <c r="BL13" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="BL13" s="12" t="s">
+      <c r="BM13" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="BM13" s="12">
+      <c r="BN13" s="12">
         <v>10</v>
       </c>
-      <c r="BN13" s="36" t="s">
+      <c r="BO13" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="CI13" s="19">
+      <c r="CJ13" s="19">
         <v>12</v>
       </c>
-      <c r="CJ13" s="20" t="s">
+      <c r="CK13" s="20" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="14" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:89" x14ac:dyDescent="0.2">
       <c r="K14" s="12" t="s">
         <v>110</v>
       </c>
@@ -3637,41 +3745,44 @@
       <c r="AR14" s="12">
         <v>3</v>
       </c>
-      <c r="AZ14" s="23" t="s">
+      <c r="AS14" s="36" t="s">
+        <v>343</v>
+      </c>
+      <c r="BA14" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="BA14" s="34">
+      <c r="BB14" s="34">
         <v>6</v>
       </c>
-      <c r="BB14" s="33">
+      <c r="BC14" s="33">
         <v>37</v>
       </c>
-      <c r="BC14" s="8">
+      <c r="BD14" s="8">
         <v>30</v>
       </c>
-      <c r="BD14" s="30" t="s">
+      <c r="BE14" s="30" t="s">
         <v>294</v>
       </c>
-      <c r="BK14" s="12" t="s">
+      <c r="BL14" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="BL14" s="12" t="s">
+      <c r="BM14" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="BM14" s="12">
+      <c r="BN14" s="12">
         <v>10</v>
       </c>
-      <c r="BN14" s="36" t="s">
+      <c r="BO14" s="36" t="s">
         <v>295</v>
       </c>
-      <c r="CI14" s="19">
+      <c r="CJ14" s="19">
         <v>13</v>
       </c>
-      <c r="CJ14" s="20" t="s">
+      <c r="CK14" s="20" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="15" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:89" x14ac:dyDescent="0.2">
       <c r="K15" s="12" t="s">
         <v>113</v>
       </c>
@@ -3735,41 +3846,44 @@
       <c r="AR15" s="12">
         <v>2</v>
       </c>
-      <c r="AZ15" s="23" t="s">
+      <c r="AS15" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="BA15" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="BA15" s="34">
+      <c r="BB15" s="34">
         <v>7</v>
       </c>
-      <c r="BB15" s="33">
+      <c r="BC15" s="33">
         <v>38</v>
       </c>
-      <c r="BC15" s="8">
+      <c r="BD15" s="8">
         <v>30</v>
       </c>
-      <c r="BD15" s="30" t="s">
+      <c r="BE15" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="BK15" s="12" t="s">
+      <c r="BL15" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="BL15" s="12" t="s">
+      <c r="BM15" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="BM15" s="12">
+      <c r="BN15" s="12">
         <v>10</v>
       </c>
-      <c r="BN15" s="36" t="s">
+      <c r="BO15" s="36" t="s">
         <v>294</v>
       </c>
-      <c r="CI15" s="19">
+      <c r="CJ15" s="19">
         <v>14</v>
       </c>
-      <c r="CJ15" s="20" t="s">
+      <c r="CK15" s="20" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="16" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:89" x14ac:dyDescent="0.2">
       <c r="K16" s="12" t="s">
         <v>119</v>
       </c>
@@ -3833,26 +3947,29 @@
       <c r="AR16" s="12">
         <v>1</v>
       </c>
-      <c r="BK16" s="12" t="s">
+      <c r="AS16" s="36" t="s">
+        <v>344</v>
+      </c>
+      <c r="BL16" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="BL16" s="12" t="s">
+      <c r="BM16" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="BM16" s="12">
+      <c r="BN16" s="12">
         <v>15</v>
       </c>
-      <c r="BN16" s="36" t="s">
+      <c r="BO16" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="CI16" s="19">
+      <c r="CJ16" s="19">
         <v>15</v>
       </c>
-      <c r="CJ16" s="20" t="s">
+      <c r="CK16" s="20" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="17" spans="11:88" x14ac:dyDescent="0.2">
+    <row r="17" spans="11:89" x14ac:dyDescent="0.2">
       <c r="K17" s="12" t="s">
         <v>125</v>
       </c>
@@ -3916,26 +4033,29 @@
       <c r="AR17" s="12">
         <v>4</v>
       </c>
-      <c r="BK17" s="12" t="s">
+      <c r="AS17" s="36" t="s">
+        <v>345</v>
+      </c>
+      <c r="BL17" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="BL17" s="12" t="s">
+      <c r="BM17" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="BM17" s="12">
+      <c r="BN17" s="12">
         <v>15</v>
       </c>
-      <c r="BN17" s="36" t="s">
+      <c r="BO17" s="36" t="s">
         <v>246</v>
       </c>
-      <c r="CI17" s="19">
+      <c r="CJ17" s="19">
         <v>16</v>
       </c>
-      <c r="CJ17" s="20" t="s">
+      <c r="CK17" s="20" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="18" spans="11:88" x14ac:dyDescent="0.2">
+    <row r="18" spans="11:89" x14ac:dyDescent="0.2">
       <c r="K18" s="12" t="s">
         <v>131</v>
       </c>
@@ -3999,26 +4119,29 @@
       <c r="AR18" s="12">
         <v>2</v>
       </c>
-      <c r="BK18" s="12" t="s">
+      <c r="AS18" s="36" t="s">
+        <v>346</v>
+      </c>
+      <c r="BL18" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="BL18" s="12" t="s">
+      <c r="BM18" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="BM18" s="12">
+      <c r="BN18" s="12">
         <v>5</v>
       </c>
-      <c r="BN18" s="36" t="s">
+      <c r="BO18" s="36" t="s">
         <v>306</v>
       </c>
-      <c r="CI18" s="19">
+      <c r="CJ18" s="19">
         <v>17</v>
       </c>
-      <c r="CJ18" s="20" t="s">
+      <c r="CK18" s="20" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="19" spans="11:88" x14ac:dyDescent="0.2">
+    <row r="19" spans="11:89" x14ac:dyDescent="0.2">
       <c r="K19" s="12" t="s">
         <v>138</v>
       </c>
@@ -4076,26 +4199,29 @@
       <c r="AR19" s="12">
         <v>1</v>
       </c>
-      <c r="BK19" s="12" t="s">
+      <c r="AS19" s="36" t="s">
+        <v>347</v>
+      </c>
+      <c r="BL19" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="BL19" s="12" t="s">
+      <c r="BM19" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="BM19" s="12">
+      <c r="BN19" s="12">
         <v>10</v>
       </c>
-      <c r="BN19" s="36" t="s">
+      <c r="BO19" s="36" t="s">
         <v>322</v>
       </c>
-      <c r="CI19" s="19">
+      <c r="CJ19" s="19">
         <v>18</v>
       </c>
-      <c r="CJ19" s="20" t="s">
+      <c r="CK19" s="20" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="20" spans="11:88" x14ac:dyDescent="0.2">
+    <row r="20" spans="11:89" x14ac:dyDescent="0.2">
       <c r="K20" s="12" t="s">
         <v>144</v>
       </c>
@@ -4153,14 +4279,17 @@
       <c r="AR20" s="12">
         <v>2</v>
       </c>
-      <c r="CI20" s="19">
+      <c r="AS20" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="CJ20" s="19">
         <v>19</v>
       </c>
-      <c r="CJ20" s="20" t="s">
+      <c r="CK20" s="20" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="21" spans="11:88" x14ac:dyDescent="0.2">
+    <row r="21" spans="11:89" x14ac:dyDescent="0.2">
       <c r="K21" s="12" t="s">
         <v>150</v>
       </c>
@@ -4218,14 +4347,17 @@
       <c r="AR21" s="12">
         <v>2</v>
       </c>
-      <c r="CI21" s="19">
+      <c r="AS21" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="CJ21" s="19">
         <v>20</v>
       </c>
-      <c r="CJ21" s="20" t="s">
+      <c r="CK21" s="20" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="22" spans="11:88" x14ac:dyDescent="0.2">
+    <row r="22" spans="11:89" x14ac:dyDescent="0.2">
       <c r="K22" s="12" t="s">
         <v>156</v>
       </c>
@@ -4283,14 +4415,17 @@
       <c r="AR22" s="12">
         <v>1</v>
       </c>
-      <c r="CI22" s="19">
+      <c r="AS22" s="36" t="s">
+        <v>350</v>
+      </c>
+      <c r="CJ22" s="19">
         <v>21</v>
       </c>
-      <c r="CJ22" s="20" t="s">
+      <c r="CK22" s="20" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="23" spans="11:88" x14ac:dyDescent="0.2">
+    <row r="23" spans="11:89" x14ac:dyDescent="0.2">
       <c r="K23" s="12" t="s">
         <v>161</v>
       </c>
@@ -4348,8 +4483,11 @@
       <c r="AR23" s="12">
         <v>1</v>
       </c>
+      <c r="AS23" s="36" t="s">
+        <v>351</v>
+      </c>
     </row>
-    <row r="24" spans="11:88" x14ac:dyDescent="0.2">
+    <row r="24" spans="11:89" x14ac:dyDescent="0.2">
       <c r="AO24" s="12" t="s">
         <v>269</v>
       </c>
@@ -4362,8 +4500,11 @@
       <c r="AR24" s="12">
         <v>3</v>
       </c>
+      <c r="AS24" s="36" t="s">
+        <v>352</v>
+      </c>
     </row>
-    <row r="25" spans="11:88" x14ac:dyDescent="0.2">
+    <row r="25" spans="11:89" x14ac:dyDescent="0.2">
       <c r="AO25" s="12" t="s">
         <v>270</v>
       </c>
@@ -4376,8 +4517,11 @@
       <c r="AR25" s="12">
         <v>4</v>
       </c>
+      <c r="AS25" s="36" t="s">
+        <v>353</v>
+      </c>
     </row>
-    <row r="26" spans="11:88" x14ac:dyDescent="0.2">
+    <row r="26" spans="11:89" x14ac:dyDescent="0.2">
       <c r="AO26" s="12" t="s">
         <v>270</v>
       </c>
@@ -4390,25 +4534,31 @@
       <c r="AR26" s="12">
         <v>2</v>
       </c>
+      <c r="AS26" s="36" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="27" spans="11:89" x14ac:dyDescent="0.2">
+      <c r="AS27" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="CF1:CH1"/>
+    <mergeCell ref="BQ1:BS1"/>
+    <mergeCell ref="BZ1:CD1"/>
+    <mergeCell ref="BU1:BX1"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="BA1:BE1"/>
+    <mergeCell ref="BG1:BJ1"/>
+    <mergeCell ref="BL1:BO1"/>
+    <mergeCell ref="AU1:AY1"/>
+    <mergeCell ref="AO1:AS1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="K1:W1"/>
     <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="CE1:CG1"/>
-    <mergeCell ref="BP1:BR1"/>
-    <mergeCell ref="BY1:CC1"/>
-    <mergeCell ref="BT1:BW1"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AO1:AR1"/>
-    <mergeCell ref="AZ1:BD1"/>
-    <mergeCell ref="BF1:BI1"/>
-    <mergeCell ref="BK1:BN1"/>
-    <mergeCell ref="AT1:AX1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="N5" r:id="rId1" xr:uid="{FBCC3CB6-0C9B-634F-9A28-6994F7F8331B}"/>
@@ -4432,11 +4582,11 @@
     <hyperlink ref="N21" r:id="rId19" xr:uid="{FAE47E48-5DEC-E94C-BCEC-8E1A0E4B5503}"/>
     <hyperlink ref="N22" r:id="rId20" xr:uid="{845BD95B-6E04-5642-A4ED-F233D0440886}"/>
     <hyperlink ref="N23" r:id="rId21" xr:uid="{023F31C1-C4A9-5342-9019-5B8DBA2CAF6B}"/>
-    <hyperlink ref="AW3" r:id="rId22" xr:uid="{5B10CC5A-2913-2E42-915A-552A94D7ED49}"/>
-    <hyperlink ref="AW4" r:id="rId23" xr:uid="{B22542DD-75E8-8249-BE1A-33E1FBC51AB2}"/>
-    <hyperlink ref="AW5" r:id="rId24" xr:uid="{777F63E4-4FE0-E94C-9097-02855C2DC234}"/>
-    <hyperlink ref="AW6" r:id="rId25" xr:uid="{468351C6-AC4A-4B42-B87A-73565C51625F}"/>
-    <hyperlink ref="AW7" r:id="rId26" xr:uid="{A5DBCE6B-0974-BD4D-8FAA-343BB9E4B9EA}"/>
+    <hyperlink ref="AX3" r:id="rId22" xr:uid="{5B10CC5A-2913-2E42-915A-552A94D7ED49}"/>
+    <hyperlink ref="AX4" r:id="rId23" xr:uid="{B22542DD-75E8-8249-BE1A-33E1FBC51AB2}"/>
+    <hyperlink ref="AX5" r:id="rId24" xr:uid="{777F63E4-4FE0-E94C-9097-02855C2DC234}"/>
+    <hyperlink ref="AX6" r:id="rId25" xr:uid="{468351C6-AC4A-4B42-B87A-73565C51625F}"/>
+    <hyperlink ref="AX7" r:id="rId26" xr:uid="{A5DBCE6B-0974-BD4D-8FAA-343BB9E4B9EA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>

--- a/TOAD_FINAL/REGISTROS.xlsx
+++ b/TOAD_FINAL/REGISTROS.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mr.blissfulgrin/Documents/UAH_2017_2018/BASES_DE_DATOS/LAB/PECL2/BBDD/TOAD_FINAL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNIVERSIDAD\REPOSITORIOSGIT\BBDD\TOAD_FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20763F59-9D85-D249-B067-4145ED2E3701}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" xr2:uid="{BEAE42A8-50CD-654F-B009-9630567E009C}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="33600" windowHeight="19416"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1095,7 +1094,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1322,28 +1321,28 @@
     <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1360,7 +1359,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1655,173 +1654,173 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8223B3-2A23-8943-9586-3C515A3B42E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CK27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AU24" sqref="AU24"/>
+    <sheetView tabSelected="1" topLeftCell="BW1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BL8" sqref="BL8:BO19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.19921875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="37" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.69921875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.1640625" customWidth="1"/>
+    <col min="22" max="22" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.19921875" customWidth="1"/>
     <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.796875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="19" customWidth="1"/>
-    <col min="33" max="33" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.296875" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="12" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.6640625" customWidth="1"/>
+    <col min="36" max="36" width="18.296875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.69921875" customWidth="1"/>
     <col min="38" max="38" width="16" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.83203125" customWidth="1"/>
+    <col min="39" max="39" width="12.796875" customWidth="1"/>
     <col min="42" max="42" width="12" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="16" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="18.296875" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="16.5" customWidth="1"/>
-    <col min="48" max="48" width="14.6640625" customWidth="1"/>
-    <col min="49" max="49" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="24.1640625" customWidth="1"/>
-    <col min="53" max="53" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.69921875" customWidth="1"/>
+    <col min="49" max="49" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="24.19921875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="24.19921875" customWidth="1"/>
+    <col min="53" max="53" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="18.296875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="18.296875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="21.19921875" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="14.796875" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="16" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="18.296875" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="17" bestFit="1" customWidth="1"/>
     <col min="70" max="70" width="18.5" bestFit="1" customWidth="1"/>
     <col min="71" max="71" width="18.5" customWidth="1"/>
     <col min="73" max="73" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="11.796875" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="151.33203125" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="151.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:89" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:89" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="D1" s="40" t="s">
+      <c r="B1" s="42"/>
+      <c r="D1" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="K1" s="41" t="s">
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="K1" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="Y1" s="42" t="s">
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="Y1" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="Z1" s="42"/>
-      <c r="AB1" s="44" t="s">
+      <c r="Z1" s="41"/>
+      <c r="AB1" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="44"/>
-      <c r="AE1" s="44"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
       <c r="AF1" s="18"/>
-      <c r="AG1" s="39" t="s">
+      <c r="AG1" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AL1" s="43" t="s">
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="42"/>
+      <c r="AL1" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="AM1" s="43"/>
-      <c r="AO1" s="41" t="s">
+      <c r="AM1" s="44"/>
+      <c r="AO1" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="AP1" s="41"/>
-      <c r="AQ1" s="41"/>
-      <c r="AR1" s="41"/>
-      <c r="AS1" s="41"/>
-      <c r="AU1" s="44" t="s">
+      <c r="AP1" s="40"/>
+      <c r="AQ1" s="40"/>
+      <c r="AR1" s="40"/>
+      <c r="AS1" s="40"/>
+      <c r="AU1" s="43" t="s">
         <v>193</v>
       </c>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44"/>
-      <c r="AX1" s="44"/>
-      <c r="AY1" s="44"/>
-      <c r="BA1" s="39" t="s">
+      <c r="AV1" s="43"/>
+      <c r="AW1" s="43"/>
+      <c r="AX1" s="43"/>
+      <c r="AY1" s="43"/>
+      <c r="BA1" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="BB1" s="39"/>
-      <c r="BC1" s="39"/>
-      <c r="BD1" s="39"/>
-      <c r="BE1" s="39"/>
-      <c r="BG1" s="43" t="s">
+      <c r="BB1" s="42"/>
+      <c r="BC1" s="42"/>
+      <c r="BD1" s="42"/>
+      <c r="BE1" s="42"/>
+      <c r="BG1" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="BH1" s="43"/>
-      <c r="BI1" s="43"/>
-      <c r="BJ1" s="43"/>
-      <c r="BL1" s="41" t="s">
+      <c r="BH1" s="44"/>
+      <c r="BI1" s="44"/>
+      <c r="BJ1" s="44"/>
+      <c r="BL1" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="BM1" s="41"/>
-      <c r="BN1" s="41"/>
-      <c r="BO1" s="41"/>
-      <c r="BQ1" s="42" t="s">
+      <c r="BM1" s="40"/>
+      <c r="BN1" s="40"/>
+      <c r="BO1" s="40"/>
+      <c r="BQ1" s="41" t="s">
         <v>201</v>
       </c>
-      <c r="BR1" s="42"/>
-      <c r="BS1" s="42"/>
-      <c r="BU1" s="44" t="s">
+      <c r="BR1" s="41"/>
+      <c r="BS1" s="41"/>
+      <c r="BU1" s="43" t="s">
         <v>280</v>
       </c>
-      <c r="BV1" s="44"/>
-      <c r="BW1" s="44"/>
-      <c r="BX1" s="44"/>
-      <c r="BZ1" s="39" t="s">
+      <c r="BV1" s="43"/>
+      <c r="BW1" s="43"/>
+      <c r="BX1" s="43"/>
+      <c r="BZ1" s="42" t="s">
         <v>281</v>
       </c>
-      <c r="CA1" s="39"/>
-      <c r="CB1" s="39"/>
-      <c r="CC1" s="39"/>
-      <c r="CD1" s="39"/>
-      <c r="CF1" s="41" t="s">
+      <c r="CA1" s="42"/>
+      <c r="CB1" s="42"/>
+      <c r="CC1" s="42"/>
+      <c r="CD1" s="42"/>
+      <c r="CF1" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="CG1" s="41"/>
-      <c r="CH1" s="41"/>
+      <c r="CG1" s="40"/>
+      <c r="CH1" s="40"/>
       <c r="CJ1" s="35" t="s">
         <v>299</v>
       </c>
@@ -1829,7 +1828,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2050,7 +2049,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="3" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
@@ -2184,7 +2183,7 @@
         <v>214</v>
       </c>
       <c r="BB3" s="34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC3" s="33">
         <v>25</v>
@@ -2271,7 +2270,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="4" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
@@ -2405,7 +2404,7 @@
         <v>233</v>
       </c>
       <c r="BB4" s="34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BC4" s="33">
         <v>26</v>
@@ -2465,7 +2464,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="5" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -2650,7 +2649,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="6" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -2814,7 +2813,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="7" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:89" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
@@ -2966,7 +2965,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="8" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:89" x14ac:dyDescent="0.3">
       <c r="D8" s="3">
         <v>6</v>
       </c>
@@ -3097,7 +3096,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="9" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:89" x14ac:dyDescent="0.3">
       <c r="D9" s="3">
         <v>7</v>
       </c>
@@ -3228,7 +3227,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="10" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:89" x14ac:dyDescent="0.3">
       <c r="H10" s="1"/>
       <c r="K10" s="12" t="s">
         <v>86</v>
@@ -3342,7 +3341,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="11" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:89" x14ac:dyDescent="0.3">
       <c r="K11" s="12" t="s">
         <v>91</v>
       </c>
@@ -3455,7 +3454,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="12" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:89" x14ac:dyDescent="0.3">
       <c r="K12" s="12" t="s">
         <v>96</v>
       </c>
@@ -3568,7 +3567,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="13" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:89" x14ac:dyDescent="0.3">
       <c r="K13" s="12" t="s">
         <v>102</v>
       </c>
@@ -3681,7 +3680,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="14" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:89" x14ac:dyDescent="0.3">
       <c r="K14" s="12" t="s">
         <v>110</v>
       </c>
@@ -3782,7 +3781,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="15" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:89" x14ac:dyDescent="0.3">
       <c r="K15" s="12" t="s">
         <v>113</v>
       </c>
@@ -3883,7 +3882,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="16" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:89" x14ac:dyDescent="0.3">
       <c r="K16" s="12" t="s">
         <v>119</v>
       </c>
@@ -3969,7 +3968,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="17" spans="11:89" x14ac:dyDescent="0.2">
+    <row r="17" spans="11:89" x14ac:dyDescent="0.3">
       <c r="K17" s="12" t="s">
         <v>125</v>
       </c>
@@ -4055,7 +4054,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="18" spans="11:89" x14ac:dyDescent="0.2">
+    <row r="18" spans="11:89" x14ac:dyDescent="0.3">
       <c r="K18" s="12" t="s">
         <v>131</v>
       </c>
@@ -4141,7 +4140,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="19" spans="11:89" x14ac:dyDescent="0.2">
+    <row r="19" spans="11:89" x14ac:dyDescent="0.3">
       <c r="K19" s="12" t="s">
         <v>138</v>
       </c>
@@ -4221,7 +4220,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="20" spans="11:89" x14ac:dyDescent="0.2">
+    <row r="20" spans="11:89" x14ac:dyDescent="0.3">
       <c r="K20" s="12" t="s">
         <v>144</v>
       </c>
@@ -4289,7 +4288,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="21" spans="11:89" x14ac:dyDescent="0.2">
+    <row r="21" spans="11:89" x14ac:dyDescent="0.3">
       <c r="K21" s="12" t="s">
         <v>150</v>
       </c>
@@ -4357,7 +4356,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="22" spans="11:89" x14ac:dyDescent="0.2">
+    <row r="22" spans="11:89" x14ac:dyDescent="0.3">
       <c r="K22" s="12" t="s">
         <v>156</v>
       </c>
@@ -4425,7 +4424,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="23" spans="11:89" x14ac:dyDescent="0.2">
+    <row r="23" spans="11:89" x14ac:dyDescent="0.3">
       <c r="K23" s="12" t="s">
         <v>161</v>
       </c>
@@ -4487,7 +4486,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="24" spans="11:89" x14ac:dyDescent="0.2">
+    <row r="24" spans="11:89" x14ac:dyDescent="0.3">
       <c r="AO24" s="12" t="s">
         <v>269</v>
       </c>
@@ -4504,7 +4503,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="25" spans="11:89" x14ac:dyDescent="0.2">
+    <row r="25" spans="11:89" x14ac:dyDescent="0.3">
       <c r="AO25" s="12" t="s">
         <v>270</v>
       </c>
@@ -4521,7 +4520,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="26" spans="11:89" x14ac:dyDescent="0.2">
+    <row r="26" spans="11:89" x14ac:dyDescent="0.3">
       <c r="AO26" s="12" t="s">
         <v>270</v>
       </c>
@@ -4538,11 +4537,16 @@
         <v>354</v>
       </c>
     </row>
-    <row r="27" spans="11:89" x14ac:dyDescent="0.2">
-      <c r="AS27" s="45"/>
+    <row r="27" spans="11:89" x14ac:dyDescent="0.3">
+      <c r="AS27" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="K1:W1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="CF1:CH1"/>
     <mergeCell ref="BQ1:BS1"/>
     <mergeCell ref="BZ1:CD1"/>
@@ -4554,39 +4558,34 @@
     <mergeCell ref="BL1:BO1"/>
     <mergeCell ref="AU1:AY1"/>
     <mergeCell ref="AO1:AS1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="K1:W1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AL1:AM1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="N5" r:id="rId1" xr:uid="{FBCC3CB6-0C9B-634F-9A28-6994F7F8331B}"/>
-    <hyperlink ref="N6" r:id="rId2" xr:uid="{E36FDECD-F4E2-BC4B-ACBF-4FBB45B44143}"/>
-    <hyperlink ref="N3" r:id="rId3" xr:uid="{FF066FEE-71A8-544B-9FBF-4AC94D59BAAF}"/>
-    <hyperlink ref="N4" r:id="rId4" xr:uid="{1579776B-8220-A246-8143-06B2F6B62E84}"/>
-    <hyperlink ref="N7" r:id="rId5" xr:uid="{9924B550-B8D4-A947-B99D-E1DADD5B3530}"/>
-    <hyperlink ref="N8" r:id="rId6" xr:uid="{241CD680-78FA-B04B-8CDB-B5DB272E1DBC}"/>
-    <hyperlink ref="N9" r:id="rId7" xr:uid="{D3E4E9CF-D32B-F945-A8E6-E9378D9CA45B}"/>
-    <hyperlink ref="N10" r:id="rId8" xr:uid="{47F3B889-30B0-AF4F-8081-426432D66C84}"/>
-    <hyperlink ref="N11" r:id="rId9" xr:uid="{DA277728-F068-784D-B72D-D9C9C70BC2D1}"/>
-    <hyperlink ref="N12" r:id="rId10" xr:uid="{9870BC31-A788-9441-AACD-103985C0FEAD}"/>
-    <hyperlink ref="N13" r:id="rId11" xr:uid="{428E71EA-ED7E-1D41-AB9F-D1B2762E04B7}"/>
-    <hyperlink ref="N14" r:id="rId12" xr:uid="{EC71574E-409D-984C-81F1-F0ABD6643445}"/>
-    <hyperlink ref="N15" r:id="rId13" xr:uid="{3DFA001A-B5E0-CC47-8231-D4F8B9F4D50D}"/>
-    <hyperlink ref="N16" r:id="rId14" xr:uid="{7F2B1B62-A90E-2E41-A668-4760D20F5763}"/>
-    <hyperlink ref="N17" r:id="rId15" xr:uid="{663788E9-3E25-8A40-851B-D113CAF80797}"/>
-    <hyperlink ref="N18" r:id="rId16" xr:uid="{EF17043E-6AFC-C246-9DC7-002C6056897A}"/>
-    <hyperlink ref="N19" r:id="rId17" xr:uid="{0DD8FBE2-D151-384E-AF79-D15562B67341}"/>
-    <hyperlink ref="N20" r:id="rId18" xr:uid="{226D5E8A-6996-224F-B7DF-167B918754C9}"/>
-    <hyperlink ref="N21" r:id="rId19" xr:uid="{FAE47E48-5DEC-E94C-BCEC-8E1A0E4B5503}"/>
-    <hyperlink ref="N22" r:id="rId20" xr:uid="{845BD95B-6E04-5642-A4ED-F233D0440886}"/>
-    <hyperlink ref="N23" r:id="rId21" xr:uid="{023F31C1-C4A9-5342-9019-5B8DBA2CAF6B}"/>
-    <hyperlink ref="AX3" r:id="rId22" xr:uid="{5B10CC5A-2913-2E42-915A-552A94D7ED49}"/>
-    <hyperlink ref="AX4" r:id="rId23" xr:uid="{B22542DD-75E8-8249-BE1A-33E1FBC51AB2}"/>
-    <hyperlink ref="AX5" r:id="rId24" xr:uid="{777F63E4-4FE0-E94C-9097-02855C2DC234}"/>
-    <hyperlink ref="AX6" r:id="rId25" xr:uid="{468351C6-AC4A-4B42-B87A-73565C51625F}"/>
-    <hyperlink ref="AX7" r:id="rId26" xr:uid="{A5DBCE6B-0974-BD4D-8FAA-343BB9E4B9EA}"/>
+    <hyperlink ref="N5" r:id="rId1"/>
+    <hyperlink ref="N6" r:id="rId2"/>
+    <hyperlink ref="N3" r:id="rId3"/>
+    <hyperlink ref="N4" r:id="rId4"/>
+    <hyperlink ref="N7" r:id="rId5"/>
+    <hyperlink ref="N8" r:id="rId6"/>
+    <hyperlink ref="N9" r:id="rId7"/>
+    <hyperlink ref="N10" r:id="rId8"/>
+    <hyperlink ref="N11" r:id="rId9"/>
+    <hyperlink ref="N12" r:id="rId10"/>
+    <hyperlink ref="N13" r:id="rId11"/>
+    <hyperlink ref="N14" r:id="rId12"/>
+    <hyperlink ref="N15" r:id="rId13"/>
+    <hyperlink ref="N16" r:id="rId14"/>
+    <hyperlink ref="N17" r:id="rId15"/>
+    <hyperlink ref="N18" r:id="rId16"/>
+    <hyperlink ref="N19" r:id="rId17"/>
+    <hyperlink ref="N20" r:id="rId18"/>
+    <hyperlink ref="N21" r:id="rId19"/>
+    <hyperlink ref="N22" r:id="rId20"/>
+    <hyperlink ref="N23" r:id="rId21"/>
+    <hyperlink ref="AX3" r:id="rId22"/>
+    <hyperlink ref="AX4" r:id="rId23"/>
+    <hyperlink ref="AX5" r:id="rId24"/>
+    <hyperlink ref="AX6" r:id="rId25"/>
+    <hyperlink ref="AX7" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>

--- a/TOAD_FINAL/REGISTROS.xlsx
+++ b/TOAD_FINAL/REGISTROS.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNIVERSIDAD\REPOSITORIOSGIT\BBDD\TOAD_FINAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mr.blissfulgrin/Documents/UAH_2017_2018/BASES_DE_DATOS/LAB/PECL2/BBDD/TOAD_FINAL/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7E95F7-7F28-EA44-AF92-E47A62505685}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="33600" windowHeight="19416"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="357">
   <si>
     <t>Tienda</t>
   </si>
@@ -932,9 +933,6 @@
     <t>#Surtidores = 7</t>
   </si>
   <si>
-    <t>Ticket :: Contine =&gt; Catidad * :: Artículo =&gt; PvP =  Kiosko: 113, Ultramarinos 104, Librería: 5, Panadería: 34, Cafetería: 70011, TOTAL: 70260</t>
-  </si>
-  <si>
     <t>Artículos =&gt; Código_de_barras, PvP (MOSTRAR)</t>
   </si>
   <si>
@@ -950,18 +948,12 @@
     <t>Artículos (5) mas canjeados =&gt; iKl-ks7-Jh0e, wef-rKM-dD93, kja-pkJ-232r, hs8-pqw-H78, LM8-gsi-6tYd</t>
   </si>
   <si>
-    <t>De los tikets premiados el 50% de su importe =&gt; 35025.5</t>
-  </si>
-  <si>
     <t>Media de las puntuaciones =&gt; 6.5</t>
   </si>
   <si>
     <t>Tickets emitidos por tienda mostrando el número y nombre de la tienda</t>
   </si>
   <si>
-    <t>Tienda con más tickets premiados</t>
-  </si>
-  <si>
     <t>Mostrar los litros repostados en cada surtidor =&gt; 0: 40, 1: 30, 2: 20, 3: 70, 4: 110, 5: 20, 6:30, 7: 30</t>
   </si>
   <si>
@@ -1089,12 +1081,27 @@
   </si>
   <si>
     <t>1461-08-14 07:32:15</t>
+  </si>
+  <si>
+    <t>De los tikets premiados el 50% de su importe =&gt; 35033.5</t>
+  </si>
+  <si>
+    <t>Ticket :: Contine =&gt; Catidad * :: Artículo =&gt; PvP =  Kiosko: 113, Ultramarinos 120, Librería: 5, Panadería: 44, Cafetería: 70026, TOTAL: 70308</t>
+  </si>
+  <si>
+    <t>Tienda con más tickets premiados Cafetería</t>
+  </si>
+  <si>
+    <t>1837-04-23 01:11:14</t>
+  </si>
+  <si>
+    <t>1995-06-07 14:40:23</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1322,27 +1329,27 @@
     <xf numFmtId="49" fontId="3" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1359,7 +1366,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1654,173 +1661,173 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CK27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BW1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BL8" sqref="BL8:BO19"/>
+    <sheetView tabSelected="1" topLeftCell="AX1" zoomScale="140" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AY15" sqref="AY15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="37" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.69921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.19921875" customWidth="1"/>
+    <col min="22" max="22" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.1640625" customWidth="1"/>
     <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="17.796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="19" customWidth="1"/>
-    <col min="33" max="33" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.296875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="12" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="18.296875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.69921875" customWidth="1"/>
+    <col min="36" max="36" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.6640625" customWidth="1"/>
     <col min="38" max="38" width="16" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.796875" customWidth="1"/>
+    <col min="39" max="39" width="12.83203125" customWidth="1"/>
     <col min="42" max="42" width="12" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="16" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="18.296875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="16.5" customWidth="1"/>
-    <col min="48" max="48" width="14.69921875" customWidth="1"/>
-    <col min="49" max="49" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="24.19921875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="24.19921875" customWidth="1"/>
-    <col min="53" max="53" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="18.296875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="18.296875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="21.19921875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.6640625" customWidth="1"/>
+    <col min="49" max="49" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="24.1640625" customWidth="1"/>
+    <col min="53" max="53" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="19.1640625" customWidth="1"/>
+    <col min="59" max="59" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="16" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="15.796875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="18.296875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="17" bestFit="1" customWidth="1"/>
     <col min="70" max="70" width="18.5" bestFit="1" customWidth="1"/>
     <col min="71" max="71" width="18.5" customWidth="1"/>
     <col min="73" max="73" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="11.796875" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="12.796875" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="151.296875" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="151.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:89" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:89" x14ac:dyDescent="0.2">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="D1" s="45" t="s">
+      <c r="B1" s="40"/>
+      <c r="D1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="K1" s="40" t="s">
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="K1" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="Y1" s="41" t="s">
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="Y1" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="Z1" s="41"/>
-      <c r="AB1" s="43" t="s">
+      <c r="Z1" s="43"/>
+      <c r="AB1" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
       <c r="AF1" s="18"/>
-      <c r="AG1" s="42" t="s">
+      <c r="AG1" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="42"/>
-      <c r="AJ1" s="42"/>
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="40"/>
       <c r="AL1" s="44" t="s">
         <v>185</v>
       </c>
       <c r="AM1" s="44"/>
-      <c r="AO1" s="40" t="s">
+      <c r="AO1" s="42" t="s">
         <v>188</v>
       </c>
-      <c r="AP1" s="40"/>
-      <c r="AQ1" s="40"/>
-      <c r="AR1" s="40"/>
-      <c r="AS1" s="40"/>
-      <c r="AU1" s="43" t="s">
+      <c r="AP1" s="42"/>
+      <c r="AQ1" s="42"/>
+      <c r="AR1" s="42"/>
+      <c r="AS1" s="42"/>
+      <c r="AU1" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="AV1" s="43"/>
-      <c r="AW1" s="43"/>
-      <c r="AX1" s="43"/>
-      <c r="AY1" s="43"/>
-      <c r="BA1" s="42" t="s">
+      <c r="AV1" s="45"/>
+      <c r="AW1" s="45"/>
+      <c r="AX1" s="45"/>
+      <c r="AY1" s="45"/>
+      <c r="BA1" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="BB1" s="42"/>
-      <c r="BC1" s="42"/>
-      <c r="BD1" s="42"/>
-      <c r="BE1" s="42"/>
+      <c r="BB1" s="40"/>
+      <c r="BC1" s="40"/>
+      <c r="BD1" s="40"/>
+      <c r="BE1" s="40"/>
       <c r="BG1" s="44" t="s">
         <v>198</v>
       </c>
       <c r="BH1" s="44"/>
       <c r="BI1" s="44"/>
       <c r="BJ1" s="44"/>
-      <c r="BL1" s="40" t="s">
+      <c r="BL1" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="BM1" s="40"/>
-      <c r="BN1" s="40"/>
-      <c r="BO1" s="40"/>
-      <c r="BQ1" s="41" t="s">
+      <c r="BM1" s="42"/>
+      <c r="BN1" s="42"/>
+      <c r="BO1" s="42"/>
+      <c r="BQ1" s="43" t="s">
         <v>201</v>
       </c>
-      <c r="BR1" s="41"/>
-      <c r="BS1" s="41"/>
-      <c r="BU1" s="43" t="s">
+      <c r="BR1" s="43"/>
+      <c r="BS1" s="43"/>
+      <c r="BU1" s="45" t="s">
         <v>280</v>
       </c>
-      <c r="BV1" s="43"/>
-      <c r="BW1" s="43"/>
-      <c r="BX1" s="43"/>
-      <c r="BZ1" s="42" t="s">
+      <c r="BV1" s="45"/>
+      <c r="BW1" s="45"/>
+      <c r="BX1" s="45"/>
+      <c r="BZ1" s="40" t="s">
         <v>281</v>
       </c>
-      <c r="CA1" s="42"/>
-      <c r="CB1" s="42"/>
-      <c r="CC1" s="42"/>
-      <c r="CD1" s="42"/>
-      <c r="CF1" s="40" t="s">
+      <c r="CA1" s="40"/>
+      <c r="CB1" s="40"/>
+      <c r="CC1" s="40"/>
+      <c r="CD1" s="40"/>
+      <c r="CF1" s="42" t="s">
         <v>200</v>
       </c>
-      <c r="CG1" s="40"/>
-      <c r="CH1" s="40"/>
+      <c r="CG1" s="42"/>
+      <c r="CH1" s="42"/>
       <c r="CJ1" s="35" t="s">
         <v>299</v>
       </c>
@@ -1828,7 +1835,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1956,7 +1963,7 @@
         <v>27</v>
       </c>
       <c r="AY2" s="21" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="BA2" s="2" t="s">
         <v>191</v>
@@ -2046,10 +2053,10 @@
         <v>1</v>
       </c>
       <c r="CK2" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
-    <row r="3" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
@@ -2162,7 +2169,7 @@
         <v>1</v>
       </c>
       <c r="AS3" s="36" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="AU3" s="22" t="s">
         <v>214</v>
@@ -2177,7 +2184,7 @@
         <v>228</v>
       </c>
       <c r="AY3" s="37" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="BA3" s="23" t="s">
         <v>214</v>
@@ -2270,7 +2277,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="4" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
@@ -2383,7 +2390,7 @@
         <v>1</v>
       </c>
       <c r="AS4" s="36" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="AU4" s="22" t="s">
         <v>233</v>
@@ -2398,7 +2405,7 @@
         <v>229</v>
       </c>
       <c r="AY4" s="38" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="BA4" s="23" t="s">
         <v>233</v>
@@ -2461,10 +2468,10 @@
         <v>3</v>
       </c>
       <c r="CK4" s="20" t="s">
-        <v>302</v>
+        <v>353</v>
       </c>
     </row>
-    <row r="5" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -2577,7 +2584,7 @@
         <v>2</v>
       </c>
       <c r="AS5" s="36" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AU5" s="22" t="s">
         <v>220</v>
@@ -2592,7 +2599,7 @@
         <v>230</v>
       </c>
       <c r="AY5" s="38" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="BA5" s="23" t="s">
         <v>220</v>
@@ -2646,10 +2653,10 @@
         <v>4</v>
       </c>
       <c r="CK5" s="20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
-    <row r="6" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -2750,7 +2757,7 @@
         <v>1</v>
       </c>
       <c r="AS6" s="36" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="AU6" s="22" t="s">
         <v>221</v>
@@ -2765,7 +2772,7 @@
         <v>231</v>
       </c>
       <c r="AY6" s="38" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="BA6" s="23" t="s">
         <v>221</v>
@@ -2810,10 +2817,10 @@
         <v>5</v>
       </c>
       <c r="CK6" s="20" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
-    <row r="7" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
@@ -2914,7 +2921,7 @@
         <v>1</v>
       </c>
       <c r="AS7" s="36" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AU7" s="22" t="s">
         <v>222</v>
@@ -2929,7 +2936,7 @@
         <v>232</v>
       </c>
       <c r="AY7" s="38" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="BA7" s="23" t="s">
         <v>222</v>
@@ -2962,10 +2969,10 @@
         <v>6</v>
       </c>
       <c r="CK7" s="20" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
-    <row r="8" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:89" x14ac:dyDescent="0.2">
       <c r="D8" s="3">
         <v>6</v>
       </c>
@@ -3060,7 +3067,7 @@
         <v>2</v>
       </c>
       <c r="AS8" s="36" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="BA8" s="23" t="s">
         <v>214</v>
@@ -3093,10 +3100,10 @@
         <v>7</v>
       </c>
       <c r="CK8" s="20" t="s">
-        <v>308</v>
+        <v>352</v>
       </c>
     </row>
-    <row r="9" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:89" x14ac:dyDescent="0.2">
       <c r="D9" s="3">
         <v>7</v>
       </c>
@@ -3191,7 +3198,7 @@
         <v>1</v>
       </c>
       <c r="AS9" s="36" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="BA9" s="23" t="s">
         <v>233</v>
@@ -3224,10 +3231,10 @@
         <v>8</v>
       </c>
       <c r="CK9" s="20" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
-    <row r="10" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:89" x14ac:dyDescent="0.2">
       <c r="H10" s="1"/>
       <c r="K10" s="12" t="s">
         <v>86</v>
@@ -3305,7 +3312,7 @@
         <v>2</v>
       </c>
       <c r="AS10" s="36" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="BA10" s="23" t="s">
         <v>233</v>
@@ -3338,10 +3345,10 @@
         <v>9</v>
       </c>
       <c r="CK10" s="20" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
-    <row r="11" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:89" x14ac:dyDescent="0.2">
       <c r="K11" s="12" t="s">
         <v>91</v>
       </c>
@@ -3418,7 +3425,7 @@
         <v>2</v>
       </c>
       <c r="AS11" s="36" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="BA11" s="23" t="s">
         <v>221</v>
@@ -3451,10 +3458,10 @@
         <v>10</v>
       </c>
       <c r="CK11" s="20" t="s">
-        <v>311</v>
+        <v>354</v>
       </c>
     </row>
-    <row r="12" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:89" x14ac:dyDescent="0.2">
       <c r="K12" s="12" t="s">
         <v>96</v>
       </c>
@@ -3531,7 +3538,7 @@
         <v>1</v>
       </c>
       <c r="AS12" s="36" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="BA12" s="23" t="s">
         <v>222</v>
@@ -3564,10 +3571,10 @@
         <v>11</v>
       </c>
       <c r="CK12" s="20" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
-    <row r="13" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:89" x14ac:dyDescent="0.2">
       <c r="K13" s="12" t="s">
         <v>102</v>
       </c>
@@ -3644,7 +3651,7 @@
         <v>2</v>
       </c>
       <c r="AS13" s="36" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="BA13" s="23" t="s">
         <v>214</v>
@@ -3677,10 +3684,10 @@
         <v>12</v>
       </c>
       <c r="CK13" s="20" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
-    <row r="14" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:89" x14ac:dyDescent="0.2">
       <c r="K14" s="12" t="s">
         <v>110</v>
       </c>
@@ -3745,7 +3752,7 @@
         <v>3</v>
       </c>
       <c r="AS14" s="36" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="BA14" s="23" t="s">
         <v>233</v>
@@ -3778,10 +3785,10 @@
         <v>13</v>
       </c>
       <c r="CK14" s="20" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
-    <row r="15" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:89" x14ac:dyDescent="0.2">
       <c r="K15" s="12" t="s">
         <v>113</v>
       </c>
@@ -3879,10 +3886,10 @@
         <v>14</v>
       </c>
       <c r="CK15" s="20" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
-    <row r="16" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:89" x14ac:dyDescent="0.2">
       <c r="K16" s="12" t="s">
         <v>119</v>
       </c>
@@ -3947,7 +3954,22 @@
         <v>1</v>
       </c>
       <c r="AS16" s="36" t="s">
-        <v>344</v>
+        <v>341</v>
+      </c>
+      <c r="BA16" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="BB16" s="34">
+        <v>2</v>
+      </c>
+      <c r="BC16" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="BD16" s="8">
+        <v>40</v>
+      </c>
+      <c r="BE16" s="30" t="s">
+        <v>355</v>
       </c>
       <c r="BL16" s="12" t="s">
         <v>221</v>
@@ -3965,10 +3987,10 @@
         <v>15</v>
       </c>
       <c r="CK16" s="20" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
-    <row r="17" spans="11:89" x14ac:dyDescent="0.3">
+    <row r="17" spans="11:89" x14ac:dyDescent="0.2">
       <c r="K17" s="12" t="s">
         <v>125</v>
       </c>
@@ -4015,7 +4037,7 @@
         <v>125</v>
       </c>
       <c r="AL17" s="25" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="AM17" s="25">
         <v>4</v>
@@ -4033,7 +4055,22 @@
         <v>4</v>
       </c>
       <c r="AS17" s="36" t="s">
-        <v>345</v>
+        <v>342</v>
+      </c>
+      <c r="BA17" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="BB17" s="34">
+        <v>4</v>
+      </c>
+      <c r="BC17" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="BD17" s="8">
+        <v>10</v>
+      </c>
+      <c r="BE17" s="30" t="s">
+        <v>356</v>
       </c>
       <c r="BL17" s="12" t="s">
         <v>222</v>
@@ -4051,10 +4088,10 @@
         <v>16</v>
       </c>
       <c r="CK17" s="20" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
-    <row r="18" spans="11:89" x14ac:dyDescent="0.3">
+    <row r="18" spans="11:89" x14ac:dyDescent="0.2">
       <c r="K18" s="12" t="s">
         <v>131</v>
       </c>
@@ -4101,7 +4138,7 @@
         <v>131</v>
       </c>
       <c r="AL18" s="25" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AM18" s="25">
         <v>4</v>
@@ -4119,7 +4156,7 @@
         <v>2</v>
       </c>
       <c r="AS18" s="36" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="BL18" s="12" t="s">
         <v>233</v>
@@ -4131,16 +4168,16 @@
         <v>5</v>
       </c>
       <c r="BO18" s="36" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="CJ18" s="19">
         <v>17</v>
       </c>
       <c r="CK18" s="20" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
-    <row r="19" spans="11:89" x14ac:dyDescent="0.3">
+    <row r="19" spans="11:89" x14ac:dyDescent="0.2">
       <c r="K19" s="12" t="s">
         <v>138</v>
       </c>
@@ -4199,28 +4236,28 @@
         <v>1</v>
       </c>
       <c r="AS19" s="36" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="BL19" s="12" t="s">
         <v>222</v>
       </c>
       <c r="BM19" s="12" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="BN19" s="12">
         <v>10</v>
       </c>
       <c r="BO19" s="36" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="CJ19" s="19">
         <v>18</v>
       </c>
       <c r="CK19" s="20" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
-    <row r="20" spans="11:89" x14ac:dyDescent="0.3">
+    <row r="20" spans="11:89" x14ac:dyDescent="0.2">
       <c r="K20" s="12" t="s">
         <v>144</v>
       </c>
@@ -4279,16 +4316,16 @@
         <v>2</v>
       </c>
       <c r="AS20" s="36" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="CJ20" s="19">
         <v>19</v>
       </c>
       <c r="CK20" s="20" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
-    <row r="21" spans="11:89" x14ac:dyDescent="0.3">
+    <row r="21" spans="11:89" x14ac:dyDescent="0.2">
       <c r="K21" s="12" t="s">
         <v>150</v>
       </c>
@@ -4347,16 +4384,16 @@
         <v>2</v>
       </c>
       <c r="AS21" s="36" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="CJ21" s="19">
         <v>20</v>
       </c>
       <c r="CK21" s="20" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
-    <row r="22" spans="11:89" x14ac:dyDescent="0.3">
+    <row r="22" spans="11:89" x14ac:dyDescent="0.2">
       <c r="K22" s="12" t="s">
         <v>156</v>
       </c>
@@ -4415,16 +4452,16 @@
         <v>1</v>
       </c>
       <c r="AS22" s="36" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="CJ22" s="19">
         <v>21</v>
       </c>
       <c r="CK22" s="20" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
-    <row r="23" spans="11:89" x14ac:dyDescent="0.3">
+    <row r="23" spans="11:89" x14ac:dyDescent="0.2">
       <c r="K23" s="12" t="s">
         <v>161</v>
       </c>
@@ -4483,10 +4520,10 @@
         <v>1</v>
       </c>
       <c r="AS23" s="36" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
-    <row r="24" spans="11:89" x14ac:dyDescent="0.3">
+    <row r="24" spans="11:89" x14ac:dyDescent="0.2">
       <c r="AO24" s="12" t="s">
         <v>269</v>
       </c>
@@ -4500,10 +4537,10 @@
         <v>3</v>
       </c>
       <c r="AS24" s="36" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
-    <row r="25" spans="11:89" x14ac:dyDescent="0.3">
+    <row r="25" spans="11:89" x14ac:dyDescent="0.2">
       <c r="AO25" s="12" t="s">
         <v>270</v>
       </c>
@@ -4517,10 +4554,10 @@
         <v>4</v>
       </c>
       <c r="AS25" s="36" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
-    <row r="26" spans="11:89" x14ac:dyDescent="0.3">
+    <row r="26" spans="11:89" x14ac:dyDescent="0.2">
       <c r="AO26" s="12" t="s">
         <v>270</v>
       </c>
@@ -4534,19 +4571,14 @@
         <v>2</v>
       </c>
       <c r="AS26" s="36" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
-    <row r="27" spans="11:89" x14ac:dyDescent="0.3">
+    <row r="27" spans="11:89" x14ac:dyDescent="0.2">
       <c r="AS27" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="K1:W1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="CF1:CH1"/>
     <mergeCell ref="BQ1:BS1"/>
     <mergeCell ref="BZ1:CD1"/>
@@ -4558,34 +4590,39 @@
     <mergeCell ref="BL1:BO1"/>
     <mergeCell ref="AU1:AY1"/>
     <mergeCell ref="AO1:AS1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="K1:W1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AL1:AM1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="N5" r:id="rId1"/>
-    <hyperlink ref="N6" r:id="rId2"/>
-    <hyperlink ref="N3" r:id="rId3"/>
-    <hyperlink ref="N4" r:id="rId4"/>
-    <hyperlink ref="N7" r:id="rId5"/>
-    <hyperlink ref="N8" r:id="rId6"/>
-    <hyperlink ref="N9" r:id="rId7"/>
-    <hyperlink ref="N10" r:id="rId8"/>
-    <hyperlink ref="N11" r:id="rId9"/>
-    <hyperlink ref="N12" r:id="rId10"/>
-    <hyperlink ref="N13" r:id="rId11"/>
-    <hyperlink ref="N14" r:id="rId12"/>
-    <hyperlink ref="N15" r:id="rId13"/>
-    <hyperlink ref="N16" r:id="rId14"/>
-    <hyperlink ref="N17" r:id="rId15"/>
-    <hyperlink ref="N18" r:id="rId16"/>
-    <hyperlink ref="N19" r:id="rId17"/>
-    <hyperlink ref="N20" r:id="rId18"/>
-    <hyperlink ref="N21" r:id="rId19"/>
-    <hyperlink ref="N22" r:id="rId20"/>
-    <hyperlink ref="N23" r:id="rId21"/>
-    <hyperlink ref="AX3" r:id="rId22"/>
-    <hyperlink ref="AX4" r:id="rId23"/>
-    <hyperlink ref="AX5" r:id="rId24"/>
-    <hyperlink ref="AX6" r:id="rId25"/>
-    <hyperlink ref="AX7" r:id="rId26"/>
+    <hyperlink ref="N5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="N6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="N3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="N4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="N7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="N8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="N9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="N10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="N11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="N12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="N13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="N14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="N15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="N16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="N17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="N18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="N19" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="N20" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="N21" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="N22" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="N23" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="AX3" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="AX4" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="AX5" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="AX6" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="AX7" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>

--- a/TOAD_FINAL/REGISTROS.xlsx
+++ b/TOAD_FINAL/REGISTROS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mr.blissfulgrin/Documents/UAH_2017_2018/BASES_DE_DATOS/LAB/PECL2/BBDD/TOAD_FINAL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7E95F7-7F28-EA44-AF92-E47A62505685}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6E175E-645A-0542-A4FF-3079B94935F3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="356">
   <si>
     <t>Tienda</t>
   </si>
@@ -81,15 +81,6 @@
     <t>NULL</t>
   </si>
   <si>
-    <t>BONITO</t>
-  </si>
-  <si>
-    <t>MUY BONITO</t>
-  </si>
-  <si>
-    <t>MASTODONTICO</t>
-  </si>
-  <si>
     <t>0.657</t>
   </si>
   <si>
@@ -138,9 +129,6 @@
     <t>0.852</t>
   </si>
   <si>
-    <t>EL CUTRILLO</t>
-  </si>
-  <si>
     <t>Andi Gómez Muñoz</t>
   </si>
   <si>
@@ -1096,6 +1084,15 @@
   </si>
   <si>
     <t>1995-06-07 14:40:23</t>
+  </si>
+  <si>
+    <t>GASOLEO</t>
+  </si>
+  <si>
+    <t>GASOLINA</t>
+  </si>
+  <si>
+    <t>HIDROGENO</t>
   </si>
 </sst>
 </file>
@@ -1664,8 +1661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CK27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AX1" zoomScale="140" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AY15" sqref="AY15"/>
+    <sheetView tabSelected="1" topLeftCell="BT1" zoomScale="140" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1706,7 +1703,7 @@
     <col min="57" max="57" width="19.1640625" customWidth="1"/>
     <col min="59" max="59" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="16" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="16" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="15.83203125" bestFit="1" customWidth="1"/>
@@ -1737,7 +1734,7 @@
       <c r="H1" s="41"/>
       <c r="I1" s="41"/>
       <c r="K1" s="42" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L1" s="42"/>
       <c r="M1" s="42"/>
@@ -1752,87 +1749,87 @@
       <c r="V1" s="42"/>
       <c r="W1" s="42"/>
       <c r="Y1" s="43" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="Z1" s="43"/>
       <c r="AB1" s="45" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="AC1" s="45"/>
       <c r="AD1" s="45"/>
       <c r="AE1" s="45"/>
       <c r="AF1" s="18"/>
       <c r="AG1" s="40" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="AH1" s="40"/>
       <c r="AI1" s="40"/>
       <c r="AJ1" s="40"/>
       <c r="AL1" s="44" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="AM1" s="44"/>
       <c r="AO1" s="42" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="AP1" s="42"/>
       <c r="AQ1" s="42"/>
       <c r="AR1" s="42"/>
       <c r="AS1" s="42"/>
       <c r="AU1" s="45" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="AV1" s="45"/>
       <c r="AW1" s="45"/>
       <c r="AX1" s="45"/>
       <c r="AY1" s="45"/>
       <c r="BA1" s="40" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="BB1" s="40"/>
       <c r="BC1" s="40"/>
       <c r="BD1" s="40"/>
       <c r="BE1" s="40"/>
       <c r="BG1" s="44" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="BH1" s="44"/>
       <c r="BI1" s="44"/>
       <c r="BJ1" s="44"/>
       <c r="BL1" s="42" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="BM1" s="42"/>
       <c r="BN1" s="42"/>
       <c r="BO1" s="42"/>
       <c r="BQ1" s="43" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="BR1" s="43"/>
       <c r="BS1" s="43"/>
       <c r="BU1" s="45" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="BV1" s="45"/>
       <c r="BW1" s="45"/>
       <c r="BX1" s="45"/>
       <c r="BZ1" s="40" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="CA1" s="40"/>
       <c r="CB1" s="40"/>
       <c r="CC1" s="40"/>
       <c r="CD1" s="40"/>
       <c r="CF1" s="42" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="CG1" s="42"/>
       <c r="CH1" s="42"/>
       <c r="CJ1" s="35" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="CK1" s="35" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:89" x14ac:dyDescent="0.2">
@@ -1861,199 +1858,199 @@
         <v>16</v>
       </c>
       <c r="K2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="P2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="Q2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="R2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="S2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="T2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="U2" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>34</v>
       </c>
       <c r="V2" s="11" t="s">
         <v>11</v>
       </c>
       <c r="W2" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Y2" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z2" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB2" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC2" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="AD2" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="Z2" s="19" t="s">
+      <c r="AE2" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="AL2" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="AM2" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="AO2" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="AP2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ2" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AR2" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="AS2" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="AU2" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="AV2" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="AW2" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AX2" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AB2" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC2" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="AD2" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="AE2" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="AL2" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="AM2" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="AO2" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="AP2" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ2" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="AR2" s="11" t="s">
+      <c r="AY2" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="BA2" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="AS2" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="AU2" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="AV2" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="AW2" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="AX2" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="AY2" s="21" t="s">
-        <v>323</v>
-      </c>
-      <c r="BA2" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="BB2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="BC2" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="BD2" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="BE2" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="BG2" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="BH2" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="BI2" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="BD2" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="BE2" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="BG2" s="24" t="s">
+      <c r="BJ2" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="BL2" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="BM2" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="BN2" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="BO2" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="BQ2" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="BR2" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="BS2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="BU2" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="BH2" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="BI2" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="BJ2" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="BL2" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="BM2" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="BN2" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="BO2" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="BQ2" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="BR2" s="19" t="s">
+      <c r="BV2" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="BW2" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="BX2" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="BZ2" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="CA2" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="CB2" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="BS2" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="BU2" s="21" t="s">
+      <c r="CC2" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="BV2" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="BW2" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="BX2" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="BZ2" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="CA2" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="CB2" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="CC2" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="CD2" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="CF2" s="11" t="s">
         <v>11</v>
       </c>
       <c r="CG2" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="CH2" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="CJ2" s="19">
         <v>1</v>
       </c>
       <c r="CK2" s="20" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:89" x14ac:dyDescent="0.2">
@@ -2073,43 +2070,43 @@
         <v>1000</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>18</v>
+        <v>354</v>
       </c>
       <c r="K3" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="N3" s="14" t="s">
         <v>55</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>59</v>
       </c>
       <c r="O3" s="12" t="s">
         <v>7</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="R3" s="12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="S3" s="12">
         <v>2</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="U3" s="12">
         <v>45677</v>
@@ -2118,76 +2115,76 @@
         <v>7</v>
       </c>
       <c r="W3" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Y3" s="27">
         <v>6736308609</v>
       </c>
       <c r="Z3" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AB3" s="22" t="s">
         <v>4</v>
       </c>
       <c r="AC3" s="22" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="AD3" s="22">
         <v>2</v>
       </c>
       <c r="AE3" s="28" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AG3" s="23" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AH3" s="30" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AI3" s="23" t="s">
         <v>3</v>
       </c>
       <c r="AJ3" s="30" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AL3" s="25" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="AM3" s="25">
         <v>12</v>
       </c>
       <c r="AO3" s="12" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AP3" s="12" t="s">
         <v>5</v>
       </c>
       <c r="AQ3" s="12" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="AR3" s="12">
         <v>1</v>
       </c>
       <c r="AS3" s="36" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="AU3" s="22" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="AV3" s="22" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="AW3" s="22" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AX3" s="29" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AY3" s="37" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="BA3" s="23" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="BB3" s="34">
         <v>2</v>
@@ -2199,34 +2196,34 @@
         <v>20</v>
       </c>
       <c r="BE3" s="30" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="BG3" s="32" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="BH3" s="25">
         <v>10</v>
       </c>
       <c r="BI3" s="25" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="BJ3" s="25" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="BL3" s="12" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="BM3" s="12" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="BN3" s="12">
         <v>20</v>
       </c>
       <c r="BO3" s="36" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="BQ3" s="20" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="BR3" s="20">
         <v>3</v>
@@ -2253,7 +2250,7 @@
         <v>28</v>
       </c>
       <c r="CB3" s="23" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="CC3" s="23">
         <v>9234</v>
@@ -2265,7 +2262,7 @@
         <v>1</v>
       </c>
       <c r="CG3" s="12" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="CH3" s="12">
         <v>6787</v>
@@ -2274,7 +2271,7 @@
         <v>2</v>
       </c>
       <c r="CK3" s="20" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:89" x14ac:dyDescent="0.2">
@@ -2282,7 +2279,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D4" s="3">
         <v>2</v>
@@ -2294,43 +2291,43 @@
         <v>1000</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>18</v>
+        <v>354</v>
       </c>
       <c r="K4" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" s="14" t="s">
         <v>56</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="N4" s="14" t="s">
-        <v>60</v>
       </c>
       <c r="O4" s="13" t="s">
         <v>8</v>
       </c>
       <c r="P4" s="13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="Q4" s="13" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="R4" s="13" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="S4" s="13">
         <v>21</v>
       </c>
       <c r="T4" s="16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="U4" s="13">
         <v>21122</v>
@@ -2339,76 +2336,76 @@
         <v>7</v>
       </c>
       <c r="W4" s="16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Y4" s="27">
         <v>8386273333</v>
       </c>
       <c r="Z4" s="26" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AB4" s="22" t="s">
         <v>9</v>
       </c>
       <c r="AC4" s="22" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AD4" s="22">
         <v>50</v>
       </c>
       <c r="AE4" s="28" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="AG4" s="23" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="AH4" s="30" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="AI4" s="23" t="s">
         <v>3</v>
       </c>
       <c r="AJ4" s="30" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AL4" s="25" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="AM4" s="25">
         <v>20</v>
       </c>
       <c r="AO4" s="12" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AP4" s="12" t="s">
         <v>5</v>
       </c>
       <c r="AQ4" s="12" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="AR4" s="12">
         <v>1</v>
       </c>
       <c r="AS4" s="36" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="AU4" s="22" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="AV4" s="22" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="AW4" s="22" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AX4" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="AY4" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="BA4" s="23" t="s">
         <v>229</v>
-      </c>
-      <c r="AY4" s="38" t="s">
-        <v>325</v>
-      </c>
-      <c r="BA4" s="23" t="s">
-        <v>233</v>
       </c>
       <c r="BB4" s="34">
         <v>4</v>
@@ -2420,34 +2417,34 @@
         <v>20</v>
       </c>
       <c r="BE4" s="30" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="BG4" s="32" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="BH4" s="25">
         <v>3</v>
       </c>
       <c r="BI4" s="25" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="BJ4" s="25" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="BL4" s="12" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="BM4" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="BN4" s="12">
         <v>10</v>
       </c>
       <c r="BO4" s="36" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="BQ4" s="20" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="BR4" s="20">
         <v>4</v>
@@ -2459,7 +2456,7 @@
         <v>2</v>
       </c>
       <c r="CG4" s="12" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="CH4" s="12">
         <v>6866</v>
@@ -2468,7 +2465,7 @@
         <v>3</v>
       </c>
       <c r="CK4" s="20" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:89" x14ac:dyDescent="0.2">
@@ -2482,49 +2479,49 @@
         <v>3</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F5" s="3">
         <v>900</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>19</v>
+        <v>353</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="O5" s="12" t="s">
         <v>7</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Q5" s="12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="R5" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S5" s="12">
         <v>2</v>
       </c>
       <c r="T5" s="15" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="U5" s="12">
         <v>28850</v>
@@ -2533,76 +2530,76 @@
         <v>4</v>
       </c>
       <c r="W5" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Y5" s="27">
         <v>8808967411</v>
       </c>
       <c r="Z5" s="20" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AB5" s="22" t="s">
         <v>5</v>
       </c>
       <c r="AC5" s="22" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="AD5" s="22">
         <v>30</v>
       </c>
       <c r="AE5" s="28" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AG5" s="23" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="AH5" s="30" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="AI5" s="23" t="s">
         <v>3</v>
       </c>
       <c r="AJ5" s="30" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AL5" s="25" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AM5" s="25">
         <v>16</v>
       </c>
       <c r="AO5" s="12" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AP5" s="12" t="s">
         <v>5</v>
       </c>
       <c r="AQ5" s="12" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AR5" s="12">
         <v>2</v>
       </c>
       <c r="AS5" s="36" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="AU5" s="22" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AV5" s="22" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="AW5" s="22" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AX5" s="29" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="AY5" s="38" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="BA5" s="23" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="BB5" s="34">
         <v>1</v>
@@ -2614,34 +2611,34 @@
         <v>30</v>
       </c>
       <c r="BE5" s="30" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="BG5" s="32" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="BH5" s="25">
         <v>9</v>
       </c>
       <c r="BI5" s="25" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="BJ5" s="25" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="BL5" s="12" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="BM5" s="12" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="BN5" s="12">
         <v>20</v>
       </c>
       <c r="BO5" s="36" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="BQ5" s="20" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="BR5" s="20">
         <v>5</v>
@@ -2653,7 +2650,7 @@
         <v>4</v>
       </c>
       <c r="CK5" s="20" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:89" x14ac:dyDescent="0.2">
@@ -2673,43 +2670,43 @@
         <v>1200</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>37</v>
+        <v>353</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="O6" s="12" t="s">
         <v>8</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="R6" s="12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="S6" s="12">
         <v>23</v>
       </c>
       <c r="T6" s="15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="U6" s="12">
         <v>28804</v>
@@ -2718,64 +2715,64 @@
         <v>4</v>
       </c>
       <c r="W6" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Y6" s="27">
         <v>7978364851</v>
       </c>
       <c r="Z6" s="20" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AG6" s="23" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AH6" s="30" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AI6" s="23" t="s">
         <v>4</v>
       </c>
       <c r="AJ6" s="30" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AL6" s="25" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AM6" s="25">
         <v>12</v>
       </c>
       <c r="AO6" s="12" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AP6" s="12" t="s">
         <v>5</v>
       </c>
       <c r="AQ6" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AR6" s="12">
         <v>1</v>
       </c>
       <c r="AS6" s="36" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AU6" s="22" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AV6" s="22" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="AW6" s="22" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AX6" s="29" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="AY6" s="38" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="BA6" s="23" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="BB6" s="34">
         <v>2</v>
@@ -2787,37 +2784,37 @@
         <v>20</v>
       </c>
       <c r="BE6" s="30" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="BG6" s="32" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="BH6" s="25">
         <v>4</v>
       </c>
       <c r="BI6" s="25" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="BJ6" s="25" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="BL6" s="12" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="BM6" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="BN6" s="12">
         <v>15</v>
       </c>
       <c r="BO6" s="36" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="CJ6" s="19">
         <v>5</v>
       </c>
       <c r="CK6" s="20" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:89" x14ac:dyDescent="0.2">
@@ -2825,7 +2822,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D7" s="3">
         <v>5</v>
@@ -2837,109 +2834,109 @@
         <v>1000</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>18</v>
+        <v>353</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="O7" s="12" t="s">
         <v>8</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="R7" s="12" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="S7" s="12">
         <v>80</v>
       </c>
       <c r="T7" s="15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="U7" s="17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="V7" s="15">
         <v>6</v>
       </c>
       <c r="W7" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Y7" s="27">
         <v>8110515984</v>
       </c>
       <c r="Z7" s="20" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AG7" s="23" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AH7" s="30" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AI7" s="23" t="s">
         <v>4</v>
       </c>
       <c r="AJ7" s="30" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AL7" s="25" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AM7" s="25">
         <v>5</v>
       </c>
       <c r="AO7" s="12" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AP7" s="12" t="s">
         <v>4</v>
       </c>
       <c r="AQ7" s="12" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AR7" s="12">
         <v>1</v>
       </c>
       <c r="AS7" s="36" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AU7" s="22" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AV7" s="22" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="AW7" s="22" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AX7" s="29" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="AY7" s="38" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="BA7" s="23" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="BB7" s="34">
         <v>3</v>
@@ -2951,25 +2948,25 @@
         <v>30</v>
       </c>
       <c r="BE7" s="30" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="BL7" s="12" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="BM7" s="12" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="BN7" s="12">
         <v>20</v>
       </c>
       <c r="BO7" s="36" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="CJ7" s="19">
         <v>6</v>
       </c>
       <c r="CK7" s="20" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:89" x14ac:dyDescent="0.2">
@@ -2977,49 +2974,49 @@
         <v>6</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F8" s="3">
         <v>500</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>19</v>
+        <v>276</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="O8" s="12" t="s">
         <v>7</v>
       </c>
       <c r="P8" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q8" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="Q8" s="12" t="s">
-        <v>75</v>
-      </c>
       <c r="R8" s="12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="S8" s="12">
         <v>18</v>
       </c>
       <c r="T8" s="15" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="U8" s="12">
         <v>78878</v>
@@ -3028,49 +3025,49 @@
         <v>6</v>
       </c>
       <c r="W8" s="15" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="Y8" s="27">
         <v>8125519483</v>
       </c>
       <c r="Z8" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="AG8" s="23" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="AH8" s="30" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AI8" s="23" t="s">
         <v>9</v>
       </c>
       <c r="AJ8" s="30" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AL8" s="25" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="AM8" s="25">
         <v>16</v>
       </c>
       <c r="AO8" s="12" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AP8" s="12" t="s">
         <v>4</v>
       </c>
       <c r="AQ8" s="12" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AR8" s="12">
         <v>2</v>
       </c>
       <c r="AS8" s="36" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="BA8" s="23" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="BB8" s="34">
         <v>3</v>
@@ -3082,25 +3079,25 @@
         <v>40</v>
       </c>
       <c r="BE8" s="30" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="BL8" s="12" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="BM8" s="12" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="BN8" s="12">
         <v>10</v>
       </c>
       <c r="BO8" s="36" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="CJ8" s="19">
         <v>7</v>
       </c>
       <c r="CK8" s="20" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:89" x14ac:dyDescent="0.2">
@@ -3108,43 +3105,43 @@
         <v>7</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F9" s="3">
         <v>700</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>20</v>
+        <v>355</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="O9" s="12" t="s">
         <v>7</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Q9" s="12" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="R9" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="S9" s="12">
         <v>13</v>
@@ -3159,49 +3156,49 @@
         <v>5</v>
       </c>
       <c r="W9" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Y9" s="27">
         <v>7652234574</v>
       </c>
       <c r="Z9" s="20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AG9" s="23" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AH9" s="30" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AI9" s="23" t="s">
         <v>5</v>
       </c>
       <c r="AJ9" s="30" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="AL9" s="25" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AM9" s="25">
         <v>3</v>
       </c>
       <c r="AO9" s="12" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="AP9" s="12" t="s">
         <v>3</v>
       </c>
       <c r="AQ9" s="12" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="AR9" s="12">
         <v>1</v>
       </c>
       <c r="AS9" s="36" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="BA9" s="23" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="BB9" s="34">
         <v>4</v>
@@ -3213,58 +3210,58 @@
         <v>20</v>
       </c>
       <c r="BE9" s="30" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="BL9" s="12" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="BM9" s="12" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="BN9" s="12">
         <v>20</v>
       </c>
       <c r="BO9" s="36" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="CJ9" s="19">
         <v>8</v>
       </c>
       <c r="CK9" s="20" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:89" x14ac:dyDescent="0.2">
       <c r="H10" s="1"/>
       <c r="K10" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="O10" s="12" t="s">
         <v>8</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Q10" s="12" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="R10" s="12" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="S10" s="12">
         <v>21</v>
       </c>
       <c r="T10" s="15" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="U10" s="12">
         <v>28012</v>
@@ -3273,49 +3270,49 @@
         <v>5</v>
       </c>
       <c r="W10" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Y10" s="27">
         <v>6514691429</v>
       </c>
       <c r="Z10" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AG10" s="23" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AH10" s="30" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="AI10" s="23" t="s">
         <v>5</v>
       </c>
       <c r="AJ10" s="30" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AL10" s="25" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AM10" s="25">
         <v>5</v>
       </c>
       <c r="AO10" s="12" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="AP10" s="12" t="s">
         <v>3</v>
       </c>
       <c r="AQ10" s="12" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AR10" s="12">
         <v>2</v>
       </c>
       <c r="AS10" s="36" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="BA10" s="23" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="BB10" s="34">
         <v>4</v>
@@ -3327,57 +3324,57 @@
         <v>30</v>
       </c>
       <c r="BE10" s="30" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="BL10" s="12" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="BM10" s="12" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="BN10" s="12">
         <v>5</v>
       </c>
       <c r="BO10" s="36" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="CJ10" s="19">
         <v>9</v>
       </c>
       <c r="CK10" s="20" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:89" x14ac:dyDescent="0.2">
       <c r="K11" s="12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O11" s="12" t="s">
         <v>7</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="Q11" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="R11" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="S11" s="12">
         <v>30</v>
       </c>
       <c r="T11" s="15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="U11" s="12">
         <v>19000</v>
@@ -3386,49 +3383,49 @@
         <v>2</v>
       </c>
       <c r="W11" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Y11" s="27">
         <v>8482022516</v>
       </c>
       <c r="Z11" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AG11" s="23" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AH11" s="30" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AI11" s="23" t="s">
         <v>6</v>
       </c>
       <c r="AJ11" s="30" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AL11" s="25" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="AM11" s="25">
         <v>9999</v>
       </c>
       <c r="AO11" s="12" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="AP11" s="12" t="s">
         <v>3</v>
       </c>
       <c r="AQ11" s="12" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AR11" s="12">
         <v>2</v>
       </c>
       <c r="AS11" s="36" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="BA11" s="23" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="BB11" s="34">
         <v>4</v>
@@ -3440,57 +3437,57 @@
         <v>20</v>
       </c>
       <c r="BE11" s="30" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="BL11" s="12" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="BM11" s="12" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="BN11" s="12">
         <v>20</v>
       </c>
       <c r="BO11" s="36" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="CJ11" s="19">
         <v>10</v>
       </c>
       <c r="CK11" s="20" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:89" x14ac:dyDescent="0.2">
       <c r="K12" s="12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="O12" s="12" t="s">
         <v>8</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Q12" s="12" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="R12" s="12" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="S12" s="12">
         <v>32</v>
       </c>
       <c r="T12" s="15" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="U12" s="12">
         <v>23901</v>
@@ -3499,49 +3496,49 @@
         <v>1</v>
       </c>
       <c r="W12" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Y12" s="27">
         <v>6855050038</v>
       </c>
       <c r="Z12" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AG12" s="23" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AH12" s="30" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="AI12" s="23" t="s">
         <v>6</v>
       </c>
       <c r="AJ12" s="30" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AL12" s="25" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="AM12" s="25">
         <v>6</v>
       </c>
       <c r="AO12" s="12" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="AP12" s="12" t="s">
         <v>9</v>
       </c>
       <c r="AQ12" s="12" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AR12" s="12">
         <v>1</v>
       </c>
       <c r="AS12" s="36" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="BA12" s="23" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="BB12" s="34">
         <v>4</v>
@@ -3553,57 +3550,57 @@
         <v>40</v>
       </c>
       <c r="BE12" s="30" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="BL12" s="12" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="BM12" s="12" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="BN12" s="12">
         <v>10</v>
       </c>
       <c r="BO12" s="36" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="CJ12" s="19">
         <v>11</v>
       </c>
       <c r="CK12" s="20" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:89" x14ac:dyDescent="0.2">
       <c r="K13" s="12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O13" s="12" t="s">
         <v>7</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="Q13" s="12" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="R13" s="12" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="S13" s="12">
         <v>88</v>
       </c>
       <c r="T13" s="15" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="U13" s="12">
         <v>42110</v>
@@ -3612,49 +3609,49 @@
         <v>1</v>
       </c>
       <c r="W13" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Y13" s="27">
         <v>6250807264</v>
       </c>
       <c r="Z13" s="20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AG13" s="23" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="AH13" s="30" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AI13" s="23" t="s">
         <v>6</v>
       </c>
       <c r="AJ13" s="30" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AL13" s="25" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="AM13" s="25">
         <v>1</v>
       </c>
       <c r="AO13" s="12" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AP13" s="12" t="s">
         <v>3</v>
       </c>
       <c r="AQ13" s="12" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="AR13" s="12">
         <v>2</v>
       </c>
       <c r="AS13" s="36" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="BA13" s="23" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="BB13" s="34">
         <v>5</v>
@@ -3666,57 +3663,57 @@
         <v>20</v>
       </c>
       <c r="BE13" s="30" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="BL13" s="12" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="BM13" s="12" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="BN13" s="12">
         <v>10</v>
       </c>
       <c r="BO13" s="36" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="CJ13" s="19">
         <v>12</v>
       </c>
       <c r="CK13" s="20" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:89" x14ac:dyDescent="0.2">
       <c r="K14" s="12" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="O14" s="12" t="s">
         <v>8</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="R14" s="12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="S14" s="12">
         <v>19</v>
       </c>
       <c r="T14" s="15" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="U14" s="12">
         <v>19004</v>
@@ -3725,37 +3722,37 @@
         <v>2</v>
       </c>
       <c r="W14" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Y14" s="27">
         <v>6437966006</v>
       </c>
       <c r="Z14" s="20" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AL14" s="25" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="AM14" s="25">
         <v>4</v>
       </c>
       <c r="AO14" s="12" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AP14" s="12" t="s">
         <v>6</v>
       </c>
       <c r="AQ14" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="AR14" s="12">
         <v>3</v>
       </c>
       <c r="AS14" s="36" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="BA14" s="23" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="BB14" s="34">
         <v>6</v>
@@ -3767,57 +3764,57 @@
         <v>30</v>
       </c>
       <c r="BE14" s="30" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="BL14" s="12" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="BM14" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="BN14" s="12">
         <v>10</v>
       </c>
       <c r="BO14" s="36" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="CJ14" s="19">
         <v>13</v>
       </c>
       <c r="CK14" s="20" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:89" x14ac:dyDescent="0.2">
       <c r="K15" s="12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="N15" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O15" s="12" t="s">
         <v>7</v>
       </c>
       <c r="P15" s="12" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="Q15" s="12" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="R15" s="12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="S15" s="12">
         <v>69</v>
       </c>
       <c r="T15" s="15" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="U15" s="12">
         <v>28004</v>
@@ -3826,37 +3823,37 @@
         <v>3</v>
       </c>
       <c r="W15" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Y15" s="27">
         <v>7415857148</v>
       </c>
       <c r="Z15" s="20" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="AL15" s="25" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AM15" s="25">
         <v>6</v>
       </c>
       <c r="AO15" s="12" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AP15" s="12" t="s">
         <v>6</v>
       </c>
       <c r="AQ15" s="12" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="AR15" s="12">
         <v>2</v>
       </c>
       <c r="AS15" s="36" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="BA15" s="23" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="BB15" s="34">
         <v>7</v>
@@ -3868,164 +3865,164 @@
         <v>30</v>
       </c>
       <c r="BE15" s="30" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="BL15" s="12" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="BM15" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="BN15" s="12">
         <v>10</v>
       </c>
       <c r="BO15" s="36" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="CJ15" s="19">
         <v>14</v>
       </c>
       <c r="CK15" s="20" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="16" spans="1:89" x14ac:dyDescent="0.2">
       <c r="K16" s="12" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="N16" s="14" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="O16" s="12" t="s">
         <v>8</v>
       </c>
       <c r="P16" s="12" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="Q16" s="12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="R16" s="12" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="S16" s="12">
         <v>86</v>
       </c>
       <c r="T16" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="U16" s="17" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="V16" s="12">
         <v>3</v>
       </c>
       <c r="W16" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Y16" s="27">
         <v>6646871792</v>
       </c>
       <c r="Z16" s="20" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="AL16" s="25" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AM16" s="25">
         <v>4</v>
       </c>
       <c r="AO16" s="12" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="AP16" s="12" t="s">
         <v>3</v>
       </c>
       <c r="AQ16" s="12" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AR16" s="12">
         <v>1</v>
       </c>
       <c r="AS16" s="36" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="BA16" s="23" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="BB16" s="34">
         <v>2</v>
       </c>
       <c r="BC16" s="23" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="BD16" s="8">
         <v>40</v>
       </c>
       <c r="BE16" s="30" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="BL16" s="12" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="BM16" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="BN16" s="12">
         <v>15</v>
       </c>
       <c r="BO16" s="36" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="CJ16" s="19">
         <v>15</v>
       </c>
       <c r="CK16" s="20" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="11:89" x14ac:dyDescent="0.2">
       <c r="K17" s="12" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="O17" s="12" t="s">
         <v>7</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="12" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="R17" s="12" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="S17" s="12">
         <v>67</v>
       </c>
       <c r="T17" s="15" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="U17" s="12">
         <v>24400</v>
       </c>
       <c r="V17" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="W17" s="15" t="s">
         <v>3</v>
@@ -4034,99 +4031,99 @@
         <v>7752334705</v>
       </c>
       <c r="Z17" s="20" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="AL17" s="25" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="AM17" s="25">
         <v>4</v>
       </c>
       <c r="AO17" s="12" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="AP17" s="12" t="s">
         <v>3</v>
       </c>
       <c r="AQ17" s="12" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AR17" s="12">
         <v>4</v>
       </c>
       <c r="AS17" s="36" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="BA17" s="23" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="BB17" s="34">
         <v>4</v>
       </c>
       <c r="BC17" s="23" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="BD17" s="8">
         <v>10</v>
       </c>
       <c r="BE17" s="30" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="BL17" s="12" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="BM17" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="BN17" s="12">
         <v>15</v>
       </c>
       <c r="BO17" s="36" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="CJ17" s="19">
         <v>16</v>
       </c>
       <c r="CK17" s="20" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18" spans="11:89" x14ac:dyDescent="0.2">
       <c r="K18" s="12" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="N18" s="14" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O18" s="12" t="s">
         <v>7</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="Q18" s="12" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="R18" s="12" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="S18" s="12">
         <v>92</v>
       </c>
       <c r="T18" s="15" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="U18" s="12">
         <v>33126</v>
       </c>
       <c r="V18" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="W18" s="15" t="s">
         <v>4</v>
@@ -4135,84 +4132,84 @@
         <v>7768753059</v>
       </c>
       <c r="Z18" s="20" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="AL18" s="25" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AM18" s="25">
         <v>4</v>
       </c>
       <c r="AO18" s="12" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="AP18" s="12" t="s">
         <v>3</v>
       </c>
       <c r="AQ18" s="12" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="AR18" s="12">
         <v>2</v>
       </c>
       <c r="AS18" s="36" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="BL18" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="BM18" s="12" t="s">
         <v>233</v>
-      </c>
-      <c r="BM18" s="12" t="s">
-        <v>237</v>
       </c>
       <c r="BN18" s="12">
         <v>5</v>
       </c>
       <c r="BO18" s="36" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="CJ18" s="19">
         <v>17</v>
       </c>
       <c r="CK18" s="20" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="19" spans="11:89" x14ac:dyDescent="0.2">
       <c r="K19" s="12" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="N19" s="14" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="O19" s="12" t="s">
         <v>8</v>
       </c>
       <c r="P19" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q19" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="Q19" s="12" t="s">
-        <v>141</v>
-      </c>
       <c r="R19" s="12" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="S19" s="12">
         <v>1492</v>
       </c>
       <c r="T19" s="15" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="U19" s="12">
         <v>30201</v>
       </c>
       <c r="V19" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="W19" s="15" t="s">
         <v>4</v>
@@ -4221,357 +4218,357 @@
         <v>7680024416</v>
       </c>
       <c r="Z19" s="20" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AO19" s="12" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AP19" s="12" t="s">
         <v>5</v>
       </c>
       <c r="AQ19" s="12" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="AR19" s="12">
         <v>1</v>
       </c>
       <c r="AS19" s="36" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="BL19" s="12" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="BM19" s="12" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="BN19" s="12">
         <v>10</v>
       </c>
       <c r="BO19" s="36" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="CJ19" s="19">
         <v>18</v>
       </c>
       <c r="CK19" s="20" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="20" spans="11:89" x14ac:dyDescent="0.2">
       <c r="K20" s="12" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N20" s="14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="O20" s="12" t="s">
         <v>8</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="12" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="R20" s="12" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="S20" s="12">
         <v>4</v>
       </c>
       <c r="T20" s="15" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="U20" s="12">
         <v>69869</v>
       </c>
       <c r="V20" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="W20" s="15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Y20" s="27">
         <v>7305196599</v>
       </c>
       <c r="Z20" s="20" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AO20" s="12" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AP20" s="12" t="s">
         <v>4</v>
       </c>
       <c r="AQ20" s="12" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AR20" s="12">
         <v>2</v>
       </c>
       <c r="AS20" s="36" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="CJ20" s="19">
         <v>19</v>
       </c>
       <c r="CK20" s="20" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="11:89" x14ac:dyDescent="0.2">
       <c r="K21" s="12" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N21" s="14" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="O21" s="12" t="s">
         <v>7</v>
       </c>
       <c r="P21" s="12" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="Q21" s="12" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="R21" s="12" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="S21" s="12">
         <v>2</v>
       </c>
       <c r="T21" s="15" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="U21" s="12">
         <v>12345</v>
       </c>
       <c r="V21" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="W21" s="15" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="Y21" s="27">
         <v>7822734752</v>
       </c>
       <c r="Z21" s="20" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AO21" s="12" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AP21" s="12" t="s">
         <v>4</v>
       </c>
       <c r="AQ21" s="12" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AR21" s="12">
         <v>2</v>
       </c>
       <c r="AS21" s="36" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="CJ21" s="19">
         <v>20</v>
       </c>
       <c r="CK21" s="20" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="22" spans="11:89" x14ac:dyDescent="0.2">
       <c r="K22" s="12" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="N22" s="14" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="O22" s="12" t="s">
         <v>7</v>
       </c>
       <c r="P22" s="12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Q22" s="12" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="R22" s="12" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="S22" s="12">
         <v>71</v>
       </c>
       <c r="T22" s="15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="U22" s="12">
         <v>18197</v>
       </c>
       <c r="V22" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="W22" s="15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Y22" s="27">
         <v>7743568674</v>
       </c>
       <c r="Z22" s="20" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AO22" s="12" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AP22" s="12" t="s">
         <v>4</v>
       </c>
       <c r="AQ22" s="12" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="AR22" s="12">
         <v>1</v>
       </c>
       <c r="AS22" s="36" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="CJ22" s="19">
         <v>21</v>
       </c>
       <c r="CK22" s="20" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="23" spans="11:89" x14ac:dyDescent="0.2">
       <c r="K23" s="12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="N23" s="14" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O23" s="12" t="s">
         <v>8</v>
       </c>
       <c r="P23" s="12" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Q23" s="12" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="R23" s="12" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="S23" s="12">
         <v>0</v>
       </c>
       <c r="T23" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="U23" s="12">
         <v>13100</v>
       </c>
       <c r="V23" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="W23" s="15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Y23" s="27">
         <v>7740076737</v>
       </c>
       <c r="Z23" s="20" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AO23" s="12" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AP23" s="12" t="s">
         <v>6</v>
       </c>
       <c r="AQ23" s="12" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="AR23" s="12">
         <v>1</v>
       </c>
       <c r="AS23" s="36" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="24" spans="11:89" x14ac:dyDescent="0.2">
       <c r="AO24" s="12" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AP24" s="12" t="s">
         <v>6</v>
       </c>
       <c r="AQ24" s="12" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="AR24" s="12">
         <v>3</v>
       </c>
       <c r="AS24" s="36" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="25" spans="11:89" x14ac:dyDescent="0.2">
       <c r="AO25" s="12" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="AP25" s="12" t="s">
         <v>6</v>
       </c>
       <c r="AQ25" s="12" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="AR25" s="12">
         <v>4</v>
       </c>
       <c r="AS25" s="36" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="26" spans="11:89" x14ac:dyDescent="0.2">
       <c r="AO26" s="12" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="AP26" s="12" t="s">
         <v>6</v>
       </c>
       <c r="AQ26" s="12" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="AR26" s="12">
         <v>2</v>
       </c>
       <c r="AS26" s="36" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="27" spans="11:89" x14ac:dyDescent="0.2">

--- a/TOAD_FINAL/REGISTROS.xlsx
+++ b/TOAD_FINAL/REGISTROS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mr.blissfulgrin/Documents/UAH_2017_2018/BASES_DE_DATOS/LAB/PECL2/BBDD/TOAD_FINAL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6E175E-645A-0542-A4FF-3079B94935F3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE8B27F-3A21-E743-AFC4-239CFDD1BF43}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16800" windowHeight="19440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -942,9 +942,6 @@
     <t>Tickets emitidos por tienda mostrando el número y nombre de la tienda</t>
   </si>
   <si>
-    <t>Mostrar los litros repostados en cada surtidor =&gt; 0: 40, 1: 30, 2: 20, 3: 70, 4: 110, 5: 20, 6:30, 7: 30</t>
-  </si>
-  <si>
     <t>Precio y capacidad medias de los surtidores de gasolina y gasoil</t>
   </si>
   <si>
@@ -957,9 +954,6 @@
     <t>Porcentaje de surtidores gasolina:28%, gasoleo:43%, GLP:14% e hidrógeno:14%</t>
   </si>
   <si>
-    <t>Valor total de los artículos canjeados =&gt;  127</t>
-  </si>
-  <si>
     <t>(MOSTRAR) fechas de surtidores averiados</t>
   </si>
   <si>
@@ -978,12 +972,6 @@
     <t>Artículos ni canjeados ni comprados =&gt; Zma-Vkz-dj8x</t>
   </si>
   <si>
-    <t>Artículos canjeados y comprados =&gt; Todos menos Zma-Vkz-dj8x y gha-GTn-s12r</t>
-  </si>
-  <si>
-    <t>Canjeados y comprados sin estar en tickets premiados Akn-3jn-NS9, iKl-ks7-Jh0e, LM8-gsi-6tYd, bnc-mbU-OP87, bcy-JGH-98HJ, wef-rKM-dD93, aso-LJk-08SS, osk-iw9-IS8K, kja-pkJ-232r</t>
-  </si>
-  <si>
     <t>Contraseña</t>
   </si>
   <si>
@@ -1093,6 +1081,18 @@
   </si>
   <si>
     <t>HIDROGENO</t>
+  </si>
+  <si>
+    <t>Valor total de los artículos canjeados =&gt;  131</t>
+  </si>
+  <si>
+    <t>Mostrar los litros repostados en cada surtidor =&gt; 1: 30, 2: 40, 3: 70, 4: 130, 5: 20, 6:30, 7: 30</t>
+  </si>
+  <si>
+    <t>Artículos canjeados y comprados =&gt; kja-pkJ-232r, Akn-3jn-NS9, hsi-JS7-js7y, hs8-pqw-H78 , LM8-gsi-6tYd, wef-rKM-dD93, iKl-ks7-Jh0e</t>
+  </si>
+  <si>
+    <t>Canjeados y comprados sin estar en tickets premiados kja-pkJ-232r, LM8-gsi-6tYd, wef-rKM-dD93, Akn-3jn-NS9, iKl-ks7-Jh0e</t>
   </si>
 </sst>
 </file>
@@ -1661,8 +1661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CK27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BT1" zoomScale="140" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="CG1" zoomScale="140" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="CK22" sqref="CK22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1960,7 +1960,7 @@
         <v>24</v>
       </c>
       <c r="AY2" s="21" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="BA2" s="2" t="s">
         <v>187</v>
@@ -2076,7 +2076,7 @@
         <v>17</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>51</v>
@@ -2166,7 +2166,7 @@
         <v>1</v>
       </c>
       <c r="AS3" s="36" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AU3" s="22" t="s">
         <v>210</v>
@@ -2181,7 +2181,7 @@
         <v>224</v>
       </c>
       <c r="AY3" s="37" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="BA3" s="23" t="s">
         <v>210</v>
@@ -2297,7 +2297,7 @@
         <v>17</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="K4" s="13" t="s">
         <v>52</v>
@@ -2387,7 +2387,7 @@
         <v>1</v>
       </c>
       <c r="AS4" s="36" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="AU4" s="22" t="s">
         <v>229</v>
@@ -2402,7 +2402,7 @@
         <v>225</v>
       </c>
       <c r="AY4" s="38" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="BA4" s="23" t="s">
         <v>229</v>
@@ -2465,7 +2465,7 @@
         <v>3</v>
       </c>
       <c r="CK4" s="20" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:89" x14ac:dyDescent="0.2">
@@ -2491,7 +2491,7 @@
         <v>17</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>36</v>
@@ -2581,7 +2581,7 @@
         <v>2</v>
       </c>
       <c r="AS5" s="36" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="AU5" s="22" t="s">
         <v>216</v>
@@ -2596,7 +2596,7 @@
         <v>226</v>
       </c>
       <c r="AY5" s="38" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="BA5" s="23" t="s">
         <v>216</v>
@@ -2676,7 +2676,7 @@
         <v>166</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>44</v>
@@ -2754,7 +2754,7 @@
         <v>1</v>
       </c>
       <c r="AS6" s="36" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AU6" s="22" t="s">
         <v>217</v>
@@ -2769,7 +2769,7 @@
         <v>227</v>
       </c>
       <c r="AY6" s="38" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="BA6" s="23" t="s">
         <v>217</v>
@@ -2840,7 +2840,7 @@
         <v>17</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="K7" s="12" t="s">
         <v>108</v>
@@ -2918,7 +2918,7 @@
         <v>1</v>
       </c>
       <c r="AS7" s="36" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="AU7" s="22" t="s">
         <v>218</v>
@@ -2933,7 +2933,7 @@
         <v>228</v>
       </c>
       <c r="AY7" s="38" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="BA7" s="23" t="s">
         <v>218</v>
@@ -3064,7 +3064,7 @@
         <v>2</v>
       </c>
       <c r="AS8" s="36" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="BA8" s="23" t="s">
         <v>210</v>
@@ -3097,7 +3097,7 @@
         <v>7</v>
       </c>
       <c r="CK8" s="20" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:89" x14ac:dyDescent="0.2">
@@ -3117,7 +3117,7 @@
         <v>17</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="K9" s="12" t="s">
         <v>75</v>
@@ -3195,7 +3195,7 @@
         <v>1</v>
       </c>
       <c r="AS9" s="36" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="BA9" s="23" t="s">
         <v>229</v>
@@ -3309,7 +3309,7 @@
         <v>2</v>
       </c>
       <c r="AS10" s="36" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="BA10" s="23" t="s">
         <v>229</v>
@@ -3422,7 +3422,7 @@
         <v>2</v>
       </c>
       <c r="AS11" s="36" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="BA11" s="23" t="s">
         <v>217</v>
@@ -3455,7 +3455,7 @@
         <v>10</v>
       </c>
       <c r="CK11" s="20" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" spans="1:89" x14ac:dyDescent="0.2">
@@ -3535,7 +3535,7 @@
         <v>1</v>
       </c>
       <c r="AS12" s="36" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="BA12" s="23" t="s">
         <v>218</v>
@@ -3568,7 +3568,7 @@
         <v>11</v>
       </c>
       <c r="CK12" s="20" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:89" x14ac:dyDescent="0.2">
@@ -3648,7 +3648,7 @@
         <v>2</v>
       </c>
       <c r="AS13" s="36" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="BA13" s="23" t="s">
         <v>210</v>
@@ -3681,7 +3681,7 @@
         <v>12</v>
       </c>
       <c r="CK13" s="20" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:89" x14ac:dyDescent="0.2">
@@ -3749,7 +3749,7 @@
         <v>3</v>
       </c>
       <c r="AS14" s="36" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="BA14" s="23" t="s">
         <v>229</v>
@@ -3782,7 +3782,7 @@
         <v>13</v>
       </c>
       <c r="CK14" s="20" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:89" x14ac:dyDescent="0.2">
@@ -3883,7 +3883,7 @@
         <v>14</v>
       </c>
       <c r="CK15" s="20" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="16" spans="1:89" x14ac:dyDescent="0.2">
@@ -3951,7 +3951,7 @@
         <v>1</v>
       </c>
       <c r="AS16" s="36" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="BA16" s="23" t="s">
         <v>43</v>
@@ -3966,7 +3966,7 @@
         <v>40</v>
       </c>
       <c r="BE16" s="30" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="BL16" s="12" t="s">
         <v>217</v>
@@ -3984,7 +3984,7 @@
         <v>15</v>
       </c>
       <c r="CK16" s="20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="11:89" x14ac:dyDescent="0.2">
@@ -4034,7 +4034,7 @@
         <v>121</v>
       </c>
       <c r="AL17" s="25" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AM17" s="25">
         <v>4</v>
@@ -4052,7 +4052,7 @@
         <v>4</v>
       </c>
       <c r="AS17" s="36" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="BA17" s="23" t="s">
         <v>43</v>
@@ -4067,7 +4067,7 @@
         <v>10</v>
       </c>
       <c r="BE17" s="30" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="BL17" s="12" t="s">
         <v>218</v>
@@ -4085,7 +4085,7 @@
         <v>16</v>
       </c>
       <c r="CK17" s="20" t="s">
-        <v>310</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="11:89" x14ac:dyDescent="0.2">
@@ -4135,7 +4135,7 @@
         <v>127</v>
       </c>
       <c r="AL18" s="25" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AM18" s="25">
         <v>4</v>
@@ -4153,7 +4153,7 @@
         <v>2</v>
       </c>
       <c r="AS18" s="36" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="BL18" s="12" t="s">
         <v>229</v>
@@ -4171,7 +4171,7 @@
         <v>17</v>
       </c>
       <c r="CK18" s="20" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19" spans="11:89" x14ac:dyDescent="0.2">
@@ -4233,25 +4233,25 @@
         <v>1</v>
       </c>
       <c r="AS19" s="36" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="BL19" s="12" t="s">
         <v>218</v>
       </c>
       <c r="BM19" s="12" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="BN19" s="12">
         <v>10</v>
       </c>
       <c r="BO19" s="36" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="CJ19" s="19">
         <v>18</v>
       </c>
       <c r="CK19" s="20" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="11:89" x14ac:dyDescent="0.2">
@@ -4313,13 +4313,13 @@
         <v>2</v>
       </c>
       <c r="AS20" s="36" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="CJ20" s="19">
         <v>19</v>
       </c>
       <c r="CK20" s="20" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
     </row>
     <row r="21" spans="11:89" x14ac:dyDescent="0.2">
@@ -4381,13 +4381,13 @@
         <v>2</v>
       </c>
       <c r="AS21" s="36" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="CJ21" s="19">
         <v>20</v>
       </c>
       <c r="CK21" s="20" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="22" spans="11:89" x14ac:dyDescent="0.2">
@@ -4449,13 +4449,13 @@
         <v>1</v>
       </c>
       <c r="AS22" s="36" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="CJ22" s="19">
         <v>21</v>
       </c>
       <c r="CK22" s="20" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
     </row>
     <row r="23" spans="11:89" x14ac:dyDescent="0.2">
@@ -4517,7 +4517,7 @@
         <v>1</v>
       </c>
       <c r="AS23" s="36" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="11:89" x14ac:dyDescent="0.2">
@@ -4534,7 +4534,7 @@
         <v>3</v>
       </c>
       <c r="AS24" s="36" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="25" spans="11:89" x14ac:dyDescent="0.2">
@@ -4551,7 +4551,7 @@
         <v>4</v>
       </c>
       <c r="AS25" s="36" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="26" spans="11:89" x14ac:dyDescent="0.2">
@@ -4568,7 +4568,7 @@
         <v>2</v>
       </c>
       <c r="AS26" s="36" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="27" spans="11:89" x14ac:dyDescent="0.2">
